--- a/rst_out/my_fund_total_2022n.xlsx
+++ b/rst_out/my_fund_total_2022n.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="496">
   <si>
     <t>ts_code</t>
   </si>
@@ -25,24 +25,24 @@
     <t>management</t>
   </si>
   <si>
+    <t>fund_type</t>
+  </si>
+  <si>
     <t>found_date</t>
   </si>
   <si>
-    <t>fund_type</t>
+    <t>m_fee</t>
+  </si>
+  <si>
+    <t>c_fee</t>
+  </si>
+  <si>
+    <t>benchmark</t>
   </si>
   <si>
     <t>invest_type</t>
   </si>
   <si>
-    <t>benchmark</t>
-  </si>
-  <si>
-    <t>m_fee</t>
-  </si>
-  <si>
-    <t>c_fee</t>
-  </si>
-  <si>
     <t>manager</t>
   </si>
   <si>
@@ -55,6 +55,12 @@
     <t>2022</t>
   </si>
   <si>
+    <t>166020.OF</t>
+  </si>
+  <si>
+    <t>166019.OF</t>
+  </si>
+  <si>
     <t>166009.SZ</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>166006.SZ</t>
   </si>
   <si>
+    <t>166002.OF</t>
+  </si>
+  <si>
     <t>166001.SZ</t>
   </si>
   <si>
@@ -76,6 +85,9 @@
     <t>166024.SZ</t>
   </si>
   <si>
+    <t>166005.OF</t>
+  </si>
+  <si>
     <t>162703.SZ</t>
   </si>
   <si>
@@ -91,12 +103,18 @@
     <t>000747.OF</t>
   </si>
   <si>
+    <t>519688.OF</t>
+  </si>
+  <si>
     <t>519736.OF</t>
   </si>
   <si>
     <t>501087.SH</t>
   </si>
   <si>
+    <t>519697.OF</t>
+  </si>
+  <si>
     <t>161912.SZ</t>
   </si>
   <si>
@@ -112,9 +130,15 @@
     <t>006259.OF</t>
   </si>
   <si>
+    <t>519069.OF</t>
+  </si>
+  <si>
     <t>161005.SZ</t>
   </si>
   <si>
+    <t>100039.OF</t>
+  </si>
+  <si>
     <t>000362.OF</t>
   </si>
   <si>
@@ -124,9 +148,21 @@
     <t>003940.OF</t>
   </si>
   <si>
+    <t>180031.OF</t>
+  </si>
+  <si>
     <t>002307.OF</t>
   </si>
   <si>
+    <t>450011.OF</t>
+  </si>
+  <si>
+    <t>450001.OF</t>
+  </si>
+  <si>
+    <t>450009.OF</t>
+  </si>
+  <si>
     <t>002628.OF</t>
   </si>
   <si>
@@ -136,9 +172,15 @@
     <t>160919.SZ</t>
   </si>
   <si>
+    <t>240022.OF</t>
+  </si>
+  <si>
     <t>162605.SZ</t>
   </si>
   <si>
+    <t>202023.OF</t>
+  </si>
+  <si>
     <t>160133.SZ</t>
   </si>
   <si>
@@ -148,9 +190,15 @@
     <t>005267.OF</t>
   </si>
   <si>
+    <t>000136.OF</t>
+  </si>
+  <si>
     <t>006058.OF</t>
   </si>
   <si>
+    <t>040035.OF</t>
+  </si>
+  <si>
     <t>001651.OF</t>
   </si>
   <si>
@@ -169,6 +217,9 @@
     <t>163412.SZ</t>
   </si>
   <si>
+    <t>340001.OF</t>
+  </si>
+  <si>
     <t>110011.OF</t>
   </si>
   <si>
@@ -187,6 +238,12 @@
     <t>001182.OF</t>
   </si>
   <si>
+    <t>110027.OF</t>
+  </si>
+  <si>
+    <t>000171.OF</t>
+  </si>
+  <si>
     <t>161115.SZ</t>
   </si>
   <si>
@@ -208,6 +265,9 @@
     <t>008383.OF</t>
   </si>
   <si>
+    <t>217022.OF</t>
+  </si>
+  <si>
     <t>161716.SZ</t>
   </si>
   <si>
@@ -229,12 +289,21 @@
     <t>161723.OF</t>
   </si>
   <si>
+    <t>110003.OF</t>
+  </si>
+  <si>
     <t>163407.SZ</t>
   </si>
   <si>
     <t>162216.SZ</t>
   </si>
   <si>
+    <t>100061.OF</t>
+  </si>
+  <si>
+    <t>262001.OF</t>
+  </si>
+  <si>
     <t>000934.OF</t>
   </si>
   <si>
@@ -271,6 +340,12 @@
     <t>512520.SH</t>
   </si>
   <si>
+    <t>中欧成长优选回报A</t>
+  </si>
+  <si>
+    <t>中欧价值智选回报A</t>
+  </si>
+  <si>
     <t>中欧动力LOF</t>
   </si>
   <si>
@@ -283,6 +358,9 @@
     <t>中欧成长LOF</t>
   </si>
   <si>
+    <t>中欧新蓝筹A</t>
+  </si>
+  <si>
     <t>中欧趋势LOF</t>
   </si>
   <si>
@@ -292,6 +370,9 @@
     <t>中欧恒利定开</t>
   </si>
   <si>
+    <t>中欧价值发现A</t>
+  </si>
+  <si>
     <t>广发小盘LOF</t>
   </si>
   <si>
@@ -307,12 +388,18 @@
     <t>广发逆向策略A</t>
   </si>
   <si>
+    <t>交银精选</t>
+  </si>
+  <si>
     <t>交银新成长</t>
   </si>
   <si>
     <t>交银瑞丰LOF</t>
   </si>
   <si>
+    <t>交银优势行业</t>
+  </si>
+  <si>
     <t>社会责任定开</t>
   </si>
   <si>
@@ -328,9 +415,15 @@
     <t>汇添富红利增长A</t>
   </si>
   <si>
+    <t>汇添富价值精选A</t>
+  </si>
+  <si>
     <t>富国天惠LOF</t>
   </si>
   <si>
+    <t>富国通胀通缩主题A</t>
+  </si>
+  <si>
     <t>国泰聚信价值优势A</t>
   </si>
   <si>
@@ -340,9 +433,21 @@
     <t>银华盛世精选A</t>
   </si>
   <si>
+    <t>银华中小盘精选</t>
+  </si>
+  <si>
     <t>银华多元视野</t>
   </si>
   <si>
+    <t>国富研究精选</t>
+  </si>
+  <si>
+    <t>国富中国收益</t>
+  </si>
+  <si>
+    <t>国富中小盘</t>
+  </si>
+  <si>
     <t>招商安博A</t>
   </si>
   <si>
@@ -352,9 +457,15 @@
     <t>产业升级LOF</t>
   </si>
   <si>
+    <t>华宝资源优选A</t>
+  </si>
+  <si>
     <t>景顺鼎益LOF</t>
   </si>
   <si>
+    <t>南方优选成长A</t>
+  </si>
+  <si>
     <t>南方天元LOF</t>
   </si>
   <si>
@@ -364,9 +475,15 @@
     <t>嘉实价值精选</t>
   </si>
   <si>
+    <t>民生加银策略精选A</t>
+  </si>
+  <si>
     <t>民生加银新兴成长</t>
   </si>
   <si>
+    <t>华安逆向策略A</t>
+  </si>
+  <si>
     <t>工银瑞信新蓝筹A</t>
   </si>
   <si>
@@ -385,6 +502,9 @@
     <t>兴全轻资产LOF</t>
   </si>
   <si>
+    <t>兴全可转债</t>
+  </si>
+  <si>
     <t>易方达优质精选</t>
   </si>
   <si>
@@ -403,6 +523,12 @@
     <t>易方达安心回馈A</t>
   </si>
   <si>
+    <t>易方达安心回报A</t>
+  </si>
+  <si>
+    <t>易方达裕丰回报A</t>
+  </si>
+  <si>
     <t>易基岁丰添利LOF</t>
   </si>
   <si>
@@ -424,6 +550,9 @@
     <t>招商安心收益A</t>
   </si>
   <si>
+    <t>招商产业A</t>
+  </si>
+  <si>
     <t>招商双债LOF</t>
   </si>
   <si>
@@ -445,12 +574,21 @@
     <t>招商中证银行指数A</t>
   </si>
   <si>
+    <t>易方达上证50增强A</t>
+  </si>
+  <si>
     <t>兴全沪深300LOF</t>
   </si>
   <si>
     <t>泰达500增强LOF</t>
   </si>
   <si>
+    <t>富国中国中小盘人民币</t>
+  </si>
+  <si>
+    <t>景顺长城大中华人民币A</t>
+  </si>
+  <si>
     <t>国富大中华精选人民币</t>
   </si>
   <si>
@@ -517,6 +655,9 @@
     <t>银华基金</t>
   </si>
   <si>
+    <t>国海富兰克林基金</t>
+  </si>
+  <si>
     <t>招商基金</t>
   </si>
   <si>
@@ -526,6 +667,9 @@
     <t>大成基金</t>
   </si>
   <si>
+    <t>华宝基金</t>
+  </si>
+  <si>
     <t>景顺长城基金</t>
   </si>
   <si>
@@ -538,6 +682,9 @@
     <t>民生加银基金</t>
   </si>
   <si>
+    <t>华安基金</t>
+  </si>
+  <si>
     <t>工银瑞信基金</t>
   </si>
   <si>
@@ -562,9 +709,6 @@
     <t>泰达宏利基金</t>
   </si>
   <si>
-    <t>国海富兰克林基金</t>
-  </si>
-  <si>
     <t>西部利得基金</t>
   </si>
   <si>
@@ -583,6 +727,528 @@
     <t>债券型</t>
   </si>
   <si>
+    <t>20130821</t>
+  </si>
+  <si>
+    <t>20130514</t>
+  </si>
+  <si>
+    <t>20110210</t>
+  </si>
+  <si>
+    <t>20160513</t>
+  </si>
+  <si>
+    <t>20160113</t>
+  </si>
+  <si>
+    <t>20091230</t>
+  </si>
+  <si>
+    <t>20080725</t>
+  </si>
+  <si>
+    <t>20070129</t>
+  </si>
+  <si>
+    <t>20150318</t>
+  </si>
+  <si>
+    <t>20171101</t>
+  </si>
+  <si>
+    <t>20090724</t>
+  </si>
+  <si>
+    <t>20050202</t>
+  </si>
+  <si>
+    <t>20171214</t>
+  </si>
+  <si>
+    <t>20151209</t>
+  </si>
+  <si>
+    <t>20160804</t>
+  </si>
+  <si>
+    <t>20140904</t>
+  </si>
+  <si>
+    <t>20050929</t>
+  </si>
+  <si>
+    <t>20140509</t>
+  </si>
+  <si>
+    <t>20190904</t>
+  </si>
+  <si>
+    <t>20090121</t>
+  </si>
+  <si>
+    <t>20190321</t>
+  </si>
+  <si>
+    <t>20200430</t>
+  </si>
+  <si>
+    <t>20150824</t>
+  </si>
+  <si>
+    <t>20190328</t>
+  </si>
+  <si>
+    <t>20190426</t>
+  </si>
+  <si>
+    <t>20090123</t>
+  </si>
+  <si>
+    <t>20051116</t>
+  </si>
+  <si>
+    <t>20100512</t>
+  </si>
+  <si>
+    <t>20131217</t>
+  </si>
+  <si>
+    <t>20140826</t>
+  </si>
+  <si>
+    <t>20161222</t>
+  </si>
+  <si>
+    <t>20120620</t>
+  </si>
+  <si>
+    <t>20160519</t>
+  </si>
+  <si>
+    <t>20120522</t>
+  </si>
+  <si>
+    <t>20050601</t>
+  </si>
+  <si>
+    <t>20101123</t>
+  </si>
+  <si>
+    <t>20160525</t>
+  </si>
+  <si>
+    <t>20160819</t>
+  </si>
+  <si>
+    <t>20141226</t>
+  </si>
+  <si>
+    <t>20120821</t>
+  </si>
+  <si>
+    <t>20050316</t>
+  </si>
+  <si>
+    <t>20110130</t>
+  </si>
+  <si>
+    <t>20140703</t>
+  </si>
+  <si>
+    <t>20180705</t>
+  </si>
+  <si>
+    <t>20171106</t>
+  </si>
+  <si>
+    <t>20130607</t>
+  </si>
+  <si>
+    <t>20180907</t>
+  </si>
+  <si>
+    <t>20120816</t>
+  </si>
+  <si>
+    <t>20150806</t>
+  </si>
+  <si>
+    <t>20171023</t>
+  </si>
+  <si>
+    <t>20191017</t>
+  </si>
+  <si>
+    <t>20051103</t>
+  </si>
+  <si>
+    <t>20100422</t>
+  </si>
+  <si>
+    <t>20120405</t>
+  </si>
+  <si>
+    <t>20040511</t>
+  </si>
+  <si>
+    <t>20210910</t>
+  </si>
+  <si>
+    <t>20170216</t>
+  </si>
+  <si>
+    <t>20171218</t>
+  </si>
+  <si>
+    <t>20180322</t>
+  </si>
+  <si>
+    <t>20150605</t>
+  </si>
+  <si>
+    <t>20150529</t>
+  </si>
+  <si>
+    <t>20110621</t>
+  </si>
+  <si>
+    <t>20130823</t>
+  </si>
+  <si>
+    <t>20101109</t>
+  </si>
+  <si>
+    <t>20191015</t>
+  </si>
+  <si>
+    <t>20140523</t>
+  </si>
+  <si>
+    <t>20171211</t>
+  </si>
+  <si>
+    <t>20141208</t>
+  </si>
+  <si>
+    <t>20130507</t>
+  </si>
+  <si>
+    <t>20191128</t>
+  </si>
+  <si>
+    <t>20120321</t>
+  </si>
+  <si>
+    <t>20150302</t>
+  </si>
+  <si>
+    <t>20150429</t>
+  </si>
+  <si>
+    <t>20150506</t>
+  </si>
+  <si>
+    <t>20150330</t>
+  </si>
+  <si>
+    <t>20200807</t>
+  </si>
+  <si>
+    <t>20200806</t>
+  </si>
+  <si>
+    <t>20150520</t>
+  </si>
+  <si>
+    <t>20040322</t>
+  </si>
+  <si>
+    <t>20101102</t>
+  </si>
+  <si>
+    <t>20191106</t>
+  </si>
+  <si>
+    <t>20120904</t>
+  </si>
+  <si>
+    <t>20110922</t>
+  </si>
+  <si>
+    <t>20150203</t>
+  </si>
+  <si>
+    <t>20110926</t>
+  </si>
+  <si>
+    <t>20161014</t>
+  </si>
+  <si>
+    <t>20160204</t>
+  </si>
+  <si>
+    <t>20160126</t>
+  </si>
+  <si>
+    <t>20150602</t>
+  </si>
+  <si>
+    <t>20140603</t>
+  </si>
+  <si>
+    <t>20100326</t>
+  </si>
+  <si>
+    <t>20200316</t>
+  </si>
+  <si>
+    <t>20211110</t>
+  </si>
+  <si>
+    <t>20180426</t>
+  </si>
+  <si>
+    <t>金融机构人民币三年期定期存款基准利率(税后)</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*75%+中证全债指数收益率*25%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*75%+中债综合指数收益率*25%</t>
+  </si>
+  <si>
+    <t>中证500指数收益率*95%+中债综合指数收益率*5%</t>
+  </si>
+  <si>
+    <t>沪深300指数*60%+上证国债指数*35%+一年期定期存款利率*5%</t>
+  </si>
+  <si>
+    <t>富时中国A600指数*80%+富时中国国债指数*20%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*65%+中债综合指数收益率*35%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*60%+中债综合指数收益率*40%</t>
+  </si>
+  <si>
+    <t>沪深300指数*80%+上证国债指数*20%</t>
+  </si>
+  <si>
+    <t>天相小市值指数</t>
+  </si>
+  <si>
+    <t>沪深300指数*50%+中证全债指数*50%</t>
+  </si>
+  <si>
+    <t>中证800指数收益率*65%+中证全债指数收益率*35%</t>
+  </si>
+  <si>
+    <t>沪深300指数*75%+中证综合债券指数*25%</t>
+  </si>
+  <si>
+    <t>富时中国A600成长指数*75%+中证综合债券指数*25%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*70%+中证综合债券指数收益率*25%+恒生指数收益率*5%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*60%+中证综合债券指数收益率*40%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*80%+上证国债指数收益率*20%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*70%+中债总指数(全价)收益率*25%+恒生指数收益率*5%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*75%+中证综合债券指数收益率*25%</t>
+  </si>
+  <si>
+    <t>中证800指数收益率*70%+中国债券综合全价指数收益率*30%</t>
+  </si>
+  <si>
+    <t>中证红利指数收益率*60%+中证港股通高股息投资指数收益率*20%+中债综合指数收益率*20%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*70%+中债综合全价指数收益率*25%+同业存款利率*5%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*80%+中债综合指数收益率*20%</t>
+  </si>
+  <si>
+    <t>中证800指数收益率*50%+中证综合债券指数收益率*50%</t>
+  </si>
+  <si>
+    <t>中证500指数收益率*80%+中证综合债指数收益率*20%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*50%+中债综合指数收益率*50%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*80%+中债国债总指数(全价)收益率*20%</t>
+  </si>
+  <si>
+    <t>中债国债总指数(全价)*55%+沪深300指数*40%+同业存款息率*5%</t>
+  </si>
+  <si>
+    <t>中证700指数收益率*90%+银行同业存款利率*10%</t>
+  </si>
+  <si>
+    <t>中证综合债指数收益率*50%+沪深300指数收益率*50%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*80%+中证综合债券指数收益率*20%</t>
+  </si>
+  <si>
+    <t>中证内地资源主题指数收益率*80%+上证国债指数收益率*20%</t>
+  </si>
+  <si>
+    <t>沪深300指数*80%+银行同业存款利率*20%</t>
+  </si>
+  <si>
+    <t>沪深300指数*60%+上证国债指数*40%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*45%+恒生指数收益率(人民币计价)*45%+中债综合财富指数收益率*10%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*45%+恒生指数收益率*45%+中债综合财富指数收益率*10%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*60%+中债国债总指数收益率(全价)*40%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*60%+中债综合指数收益率*30%+恒生综合指数收益率*10%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*80%+中国债券总指数收益率*20%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*80%+中债综合财富指数收益率*20%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*55%+上证国债指数收益率*45%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*60%+恒生指数收益率(使用估值汇率折算)*20%+中债综合(全价)指数收益率*20%</t>
+  </si>
+  <si>
+    <t>沪深300指数*50%+中证国债指数*45%+同业存款利率*5%</t>
+  </si>
+  <si>
+    <t>沪深300指数*80%+中证国债指数*20%</t>
+  </si>
+  <si>
+    <t>中证可转换债券指数*80%+沪深300指数*15%+同业存款利率*5%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*50%+中证香港300指数收益率*30%+中债总指数收益率*20%</t>
+  </si>
+  <si>
+    <t>中债新综合指数收益率*70%+沪深300指数收益率*25%+金融机构人民币活期存款基准利率(税后)*5%</t>
+  </si>
+  <si>
+    <t>中债综合指数收益率*80%+沪深300指数收益率*20%</t>
+  </si>
+  <si>
+    <t>同期中国人民银行公布的三年期银行定期存款收益率(税后)+1.5%</t>
+  </si>
+  <si>
+    <t>三年期银行定期存款收益率(税后)+1.0%</t>
+  </si>
+  <si>
+    <t>中债新综合财富指数收益率*90%+沪深300指数收益率*10%</t>
+  </si>
+  <si>
+    <t>中债新综合财富指数</t>
+  </si>
+  <si>
+    <t>中债综合财富(1年以下)指数收益率*80%+银行活期存款利率(税后)*20%</t>
+  </si>
+  <si>
+    <t>中债综合指数</t>
+  </si>
+  <si>
+    <t>中债综合指数收益率</t>
+  </si>
+  <si>
+    <t>中债总指数收益率</t>
+  </si>
+  <si>
+    <t>三年期银行定期存款收益率(税后)</t>
+  </si>
+  <si>
+    <t>中债综合全价(总值)指数收益率</t>
+  </si>
+  <si>
+    <t>中债综合指数收益率*60%+天相可转债指数收益率*40%</t>
+  </si>
+  <si>
+    <t>中证酒指数收益率*95%+商业银行活期存款利率(税后)*5%</t>
+  </si>
+  <si>
+    <t>中证全指证券公司指数收益率*95%+商业银行活期存款利率(税后)*5%</t>
+  </si>
+  <si>
+    <t>中证新能源汽车指数收益率*95%+银行人民币活期存款利率(税后)*5%</t>
+  </si>
+  <si>
+    <t>中证银行指数收益率*95%+活期存款利率(税后)*5%</t>
+  </si>
+  <si>
+    <t>中证银行指数收益率*95%+金融机构人民币活期存款基准利率(税后)*5%</t>
+  </si>
+  <si>
+    <t>上证50指数</t>
+  </si>
+  <si>
+    <t>沪深300指数*95%+同业存款利率*5%</t>
+  </si>
+  <si>
+    <t>中证500指数收益率*95%+1年期定期存款利率(税后)*5%</t>
+  </si>
+  <si>
+    <t>中证香港中国中小综合指数收益率*80%+香港三个月期银行同业拆借利率(Hong Kong 3-Month Interbank Offer Rate)*20%</t>
+  </si>
+  <si>
+    <t>摩根斯坦利金龙净总收益指数(MSCI Golden Dragon Net Total Return Index)</t>
+  </si>
+  <si>
+    <t>MSCI金龙净总收益指数(MSCI Golden Dragon Net Total Return Index)*60%+同期人民币一年期定期存款利率(税后)*40%</t>
+  </si>
+  <si>
+    <t>经人民币汇率调整的恒生指数收益率*95%+人民币同期活期存款利率*5%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*50%+中国债券总指数收益率*50%</t>
+  </si>
+  <si>
+    <t>中债综合全价指数收益率*90%+沪深300指数收益率*10%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*50%+中证全债指数收益率*50%</t>
+  </si>
+  <si>
+    <t>沪深300指数收益率*50%+上证国债指数收益率*50%</t>
+  </si>
+  <si>
+    <t>三年期银行定期存款利率(税后)</t>
+  </si>
+  <si>
+    <t>中证医药卫生指数收益率*60%+中国债券总指数收益率*40%</t>
+  </si>
+  <si>
+    <t>中证医药50指数收益率</t>
+  </si>
+  <si>
+    <t>中证消费电子主题指数收益率</t>
+  </si>
+  <si>
+    <t>MSCI中国A股国际通指数收益率</t>
+  </si>
+  <si>
     <t>灵活配置型</t>
   </si>
   <si>
@@ -595,187 +1261,10 @@
     <t>增强指数型</t>
   </si>
   <si>
-    <t>沪深300指数收益率*75%+中证全债指数收益率*25%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*75%+中债综合指数收益率*25%</t>
-  </si>
-  <si>
-    <t>中证500指数收益率*95%+中债综合指数收益率*5%</t>
-  </si>
-  <si>
-    <t>富时中国A600指数*80%+富时中国国债指数*20%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*65%+中债综合指数收益率*35%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*60%+中债综合指数收益率*40%</t>
-  </si>
-  <si>
-    <t>天相小市值指数</t>
-  </si>
-  <si>
-    <t>沪深300指数*50%+中证全债指数*50%</t>
-  </si>
-  <si>
-    <t>中证800指数收益率*65%+中证全债指数收益率*35%</t>
-  </si>
-  <si>
-    <t>富时中国A600成长指数*75%+中证综合债券指数*25%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*70%+中证综合债券指数收益率*25%+恒生指数收益率*5%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*80%+上证国债指数收益率*20%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*70%+中债总指数(全价)收益率*25%+恒生指数收益率*5%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*75%+中证综合债券指数收益率*25%</t>
-  </si>
-  <si>
-    <t>中证800指数收益率*70%+中国债券综合全价指数收益率*30%</t>
-  </si>
-  <si>
-    <t>中证红利指数收益率*60%+中证港股通高股息投资指数收益率*20%+中债综合指数收益率*20%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*70%+中债综合全价指数收益率*25%+同业存款利率*5%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*80%+中债综合指数收益率*20%</t>
-  </si>
-  <si>
-    <t>中证800指数收益率*50%+中证综合债券指数收益率*50%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*50%+中债综合指数收益率*50%</t>
-  </si>
-  <si>
-    <t>中证综合债指数收益率*50%+沪深300指数收益率*50%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*80%+中证综合债券指数收益率*20%</t>
-  </si>
-  <si>
-    <t>沪深300指数*80%+银行同业存款利率*20%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*45%+恒生指数收益率(人民币计价)*45%+中债综合财富指数收益率*10%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*45%+恒生指数收益率*45%+中债综合财富指数收益率*10%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*60%+中债综合指数收益率*30%+恒生综合指数收益率*10%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*80%+中债综合财富指数收益率*20%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*55%+上证国债指数收益率*45%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*60%+恒生指数收益率(使用估值汇率折算)*20%+中债综合(全价)指数收益率*20%</t>
-  </si>
-  <si>
-    <t>沪深300指数*50%+中证国债指数*45%+同业存款利率*5%</t>
-  </si>
-  <si>
-    <t>沪深300指数*80%+中证国债指数*20%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*50%+中证香港300指数收益率*30%+中债总指数收益率*20%</t>
-  </si>
-  <si>
-    <t>中债新综合指数收益率*70%+沪深300指数收益率*25%+金融机构人民币活期存款基准利率(税后)*5%</t>
-  </si>
-  <si>
-    <t>中债综合指数收益率*80%+沪深300指数收益率*20%</t>
-  </si>
-  <si>
-    <t>同期中国人民银行公布的三年期银行定期存款收益率(税后)+1.5%</t>
-  </si>
-  <si>
-    <t>中债新综合财富指数</t>
-  </si>
-  <si>
-    <t>中债综合财富(1年以下)指数收益率*80%+银行活期存款利率(税后)*20%</t>
-  </si>
-  <si>
-    <t>中债综合指数</t>
-  </si>
-  <si>
-    <t>中债综合指数收益率</t>
-  </si>
-  <si>
-    <t>中债总指数收益率</t>
-  </si>
-  <si>
-    <t>三年期银行定期存款收益率(税后)</t>
-  </si>
-  <si>
-    <t>中债综合全价(总值)指数收益率</t>
-  </si>
-  <si>
-    <t>中债综合指数收益率*60%+天相可转债指数收益率*40%</t>
-  </si>
-  <si>
-    <t>中证酒指数收益率*95%+商业银行活期存款利率(税后)*5%</t>
-  </si>
-  <si>
-    <t>中证全指证券公司指数收益率*95%+商业银行活期存款利率(税后)*5%</t>
-  </si>
-  <si>
-    <t>中证新能源汽车指数收益率*95%+银行人民币活期存款利率(税后)*5%</t>
-  </si>
-  <si>
-    <t>中证银行指数收益率*95%+活期存款利率(税后)*5%</t>
-  </si>
-  <si>
-    <t>中证银行指数收益率*95%+金融机构人民币活期存款基准利率(税后)*5%</t>
-  </si>
-  <si>
-    <t>沪深300指数*95%+同业存款利率*5%</t>
-  </si>
-  <si>
-    <t>中证500指数收益率*95%+1年期定期存款利率(税后)*5%</t>
-  </si>
-  <si>
-    <t>MSCI金龙净总收益指数(MSCI Golden Dragon Net Total Return Index)*60%+同期人民币一年期定期存款利率(税后)*40%</t>
-  </si>
-  <si>
-    <t>经人民币汇率调整的恒生指数收益率*95%+人民币同期活期存款利率*5%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*50%+中国债券总指数收益率*50%</t>
-  </si>
-  <si>
-    <t>中债综合全价指数收益率*90%+沪深300指数收益率*10%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*50%+中证全债指数收益率*50%</t>
-  </si>
-  <si>
-    <t>沪深300指数收益率*50%+上证国债指数收益率*50%</t>
-  </si>
-  <si>
-    <t>三年期银行定期存款利率(税后)</t>
-  </si>
-  <si>
-    <t>中证医药卫生指数收益率*60%+中国债券总指数收益率*40%</t>
-  </si>
-  <si>
-    <t>中证医药50指数收益率</t>
-  </si>
-  <si>
-    <t>中证消费电子主题指数收益率</t>
-  </si>
-  <si>
-    <t>MSCI中国A股国际通指数收益率</t>
+    <t>曹名长 沈悦</t>
+  </si>
+  <si>
+    <t>袁维德</t>
   </si>
   <si>
     <t>王健 许文星</t>
@@ -787,10 +1276,13 @@
     <t>尹为醇 王培</t>
   </si>
   <si>
+    <t>冯炉丹 周蔚文</t>
+  </si>
+  <si>
     <t>周蔚文</t>
   </si>
   <si>
-    <t>曹名长 沈悦</t>
+    <t>曹名长 沈悦 蓝小康</t>
   </si>
   <si>
     <t>刘格菘</t>
@@ -805,6 +1297,9 @@
     <t>王崇</t>
   </si>
   <si>
+    <t>何帅</t>
+  </si>
+  <si>
     <t>莫海波</t>
   </si>
   <si>
@@ -817,9 +1312,15 @@
     <t>劳杰男 黄耀锋</t>
   </si>
   <si>
+    <t>劳杰男</t>
+  </si>
+  <si>
     <t>朱少醒</t>
   </si>
   <si>
+    <t>曹晋</t>
+  </si>
+  <si>
     <t>程洲</t>
   </si>
   <si>
@@ -829,9 +1330,18 @@
     <t>张萍 李晓星</t>
   </si>
   <si>
+    <t>张萍 李晓星 杜宇</t>
+  </si>
+  <si>
     <t>贾鹏 郭思捷</t>
   </si>
   <si>
+    <t>徐荔蓉</t>
+  </si>
+  <si>
+    <t>赵晓东</t>
+  </si>
+  <si>
     <t>张西林</t>
   </si>
   <si>
@@ -841,9 +1351,15 @@
     <t>李林益</t>
   </si>
   <si>
+    <t>丁靖斐 蔡目荣</t>
+  </si>
+  <si>
     <t>刘彦春</t>
   </si>
   <si>
+    <t>骆帅</t>
+  </si>
+  <si>
     <t>蒋秋洁</t>
   </si>
   <si>
@@ -853,9 +1369,15 @@
     <t>谭丽</t>
   </si>
   <si>
+    <t>孙伟</t>
+  </si>
+  <si>
     <t>孙伟 王晓岩</t>
   </si>
   <si>
+    <t>万建军</t>
+  </si>
+  <si>
     <t>王筱苓</t>
   </si>
   <si>
@@ -874,6 +1396,9 @@
     <t>董理</t>
   </si>
   <si>
+    <t>虞淼</t>
+  </si>
+  <si>
     <t>张坤</t>
   </si>
   <si>
@@ -889,6 +1414,9 @@
     <t>李中阳 林虎</t>
   </si>
   <si>
+    <t>张清华 张雅君</t>
+  </si>
+  <si>
     <t>张凯頔 胡剑</t>
   </si>
   <si>
@@ -931,12 +1459,21 @@
     <t>侯昊</t>
   </si>
   <si>
+    <t>张胜记</t>
+  </si>
+  <si>
     <t>申庆</t>
   </si>
   <si>
     <t>刘洋</t>
   </si>
   <si>
+    <t>张峰</t>
+  </si>
+  <si>
+    <t>周寒颖</t>
+  </si>
+  <si>
     <t>徐成</t>
   </si>
   <si>
@@ -944,9 +1481,6 @@
   </si>
   <si>
     <t>王海峰</t>
-  </si>
-  <si>
-    <t>赵晓东</t>
   </si>
   <si>
     <t>陈保国</t>
@@ -1325,7 +1859,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,40 +1911,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2">
-        <v>20110210</v>
+        <v>203</v>
+      </c>
+      <c r="D2" t="s">
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2">
-        <v>1.5</v>
-      </c>
-      <c r="I2">
-        <v>0.25</v>
+        <v>237</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0.25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2" t="s">
+        <v>411</v>
       </c>
       <c r="J2" t="s">
-        <v>254</v>
+        <v>415</v>
       </c>
       <c r="K2">
-        <v>16.12</v>
+        <v>2.37</v>
       </c>
       <c r="L2" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M2">
-        <v>-0.2315680995694876</v>
+        <v>-0.07200381638637553</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1418,40 +1952,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3">
-        <v>20160513</v>
+        <v>203</v>
+      </c>
+      <c r="D3" t="s">
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3">
+        <v>238</v>
+      </c>
+      <c r="F3">
         <v>1.5</v>
       </c>
-      <c r="I3">
-        <v>0.25</v>
+      <c r="G3">
+        <v>0.25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I3" t="s">
+        <v>411</v>
       </c>
       <c r="J3" t="s">
-        <v>254</v>
+        <v>416</v>
       </c>
       <c r="K3">
-        <v>22.51</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="L3" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M3">
-        <v>-0.1052647595861229</v>
+        <v>-0.1900858768166281</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1459,40 +1993,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4">
-        <v>20160113</v>
+        <v>203</v>
+      </c>
+      <c r="D4" t="s">
+        <v>234</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H4">
+        <v>239</v>
+      </c>
+      <c r="F4">
         <v>1.5</v>
       </c>
-      <c r="I4">
-        <v>0.25</v>
+      <c r="G4">
+        <v>0.25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I4" t="s">
+        <v>234</v>
       </c>
       <c r="J4" t="s">
-        <v>255</v>
+        <v>417</v>
       </c>
       <c r="K4">
-        <v>6.03</v>
+        <v>16.12</v>
       </c>
       <c r="L4" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M4">
-        <v>-0.2376110549403273</v>
+        <v>-0.2315680995694876</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1500,40 +2034,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5">
-        <v>20091230</v>
+        <v>203</v>
+      </c>
+      <c r="D5" t="s">
+        <v>234</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H5">
+        <v>240</v>
+      </c>
+      <c r="F5">
         <v>1.5</v>
       </c>
-      <c r="I5">
-        <v>0.25</v>
+      <c r="G5">
+        <v>0.25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I5" t="s">
+        <v>234</v>
       </c>
       <c r="J5" t="s">
-        <v>256</v>
+        <v>417</v>
       </c>
       <c r="K5">
-        <v>38.21</v>
+        <v>22.51</v>
       </c>
       <c r="L5" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M5">
-        <v>-0.2959479888996074</v>
+        <v>-0.1052647595861229</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1541,40 +2075,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6">
-        <v>20070129</v>
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
+        <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6">
+        <v>241</v>
+      </c>
+      <c r="F6">
         <v>1.5</v>
       </c>
-      <c r="I6">
-        <v>0.25</v>
+      <c r="G6">
+        <v>0.25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>334</v>
+      </c>
+      <c r="I6" t="s">
+        <v>411</v>
       </c>
       <c r="J6" t="s">
-        <v>257</v>
+        <v>418</v>
       </c>
       <c r="K6">
-        <v>40.78</v>
+        <v>6.03</v>
       </c>
       <c r="L6" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M6">
-        <v>-0.1350634405778188</v>
+        <v>-0.2376110549403273</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1582,40 +2116,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7">
-        <v>20150318</v>
+        <v>203</v>
+      </c>
+      <c r="D7" t="s">
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0.25</v>
+        <v>242</v>
+      </c>
+      <c r="F7">
+        <v>1.5</v>
+      </c>
+      <c r="G7">
+        <v>0.25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I7" t="s">
+        <v>234</v>
       </c>
       <c r="J7" t="s">
-        <v>257</v>
+        <v>419</v>
       </c>
       <c r="K7">
-        <v>55.2</v>
+        <v>38.21</v>
       </c>
       <c r="L7" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M7">
-        <v>-0.1234751409533573</v>
+        <v>-0.2959479888996074</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1623,40 +2157,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8">
-        <v>20171101</v>
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
+        <v>234</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8">
+        <v>243</v>
+      </c>
+      <c r="F8">
         <v>1.5</v>
       </c>
-      <c r="I8">
-        <v>0.25</v>
+      <c r="G8">
+        <v>0.25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>335</v>
+      </c>
+      <c r="I8" t="s">
+        <v>411</v>
       </c>
       <c r="J8" t="s">
-        <v>258</v>
+        <v>420</v>
       </c>
       <c r="K8">
-        <v>3.99</v>
+        <v>111.3</v>
       </c>
       <c r="L8" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M8">
-        <v>-0.09876883759408603</v>
+        <v>-0.1392802648947913</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1664,40 +2198,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9">
-        <v>20050202</v>
+        <v>203</v>
+      </c>
+      <c r="D9" t="s">
+        <v>234</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" t="s">
-        <v>199</v>
-      </c>
-      <c r="H9">
+        <v>244</v>
+      </c>
+      <c r="F9">
         <v>1.5</v>
       </c>
-      <c r="I9">
-        <v>0.25</v>
+      <c r="G9">
+        <v>0.25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>336</v>
+      </c>
+      <c r="I9" t="s">
+        <v>234</v>
       </c>
       <c r="J9" t="s">
-        <v>259</v>
+        <v>421</v>
       </c>
       <c r="K9">
-        <v>99.59999999999999</v>
+        <v>40.78</v>
       </c>
       <c r="L9" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M9">
-        <v>-0.2149118978490656</v>
+        <v>-0.1350634405778188</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1705,40 +2239,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10">
-        <v>20171214</v>
+        <v>203</v>
+      </c>
+      <c r="D10" t="s">
+        <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10">
-        <v>1.5</v>
-      </c>
-      <c r="I10">
-        <v>0.25</v>
+        <v>245</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>337</v>
+      </c>
+      <c r="I10" t="s">
+        <v>411</v>
       </c>
       <c r="J10" t="s">
-        <v>260</v>
+        <v>421</v>
       </c>
       <c r="K10">
-        <v>42.36</v>
+        <v>55.2</v>
       </c>
       <c r="L10" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M10">
-        <v>0.1120910598522539</v>
+        <v>-0.1234751409533573</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1746,40 +2280,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11">
-        <v>20151209</v>
+        <v>203</v>
+      </c>
+      <c r="D11" t="s">
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" t="s">
-        <v>200</v>
-      </c>
-      <c r="H11">
+        <v>246</v>
+      </c>
+      <c r="F11">
         <v>1.5</v>
       </c>
-      <c r="I11">
-        <v>0.25</v>
+      <c r="G11">
+        <v>0.25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>338</v>
+      </c>
+      <c r="I11" t="s">
+        <v>234</v>
       </c>
       <c r="J11" t="s">
-        <v>260</v>
+        <v>415</v>
       </c>
       <c r="K11">
-        <v>22.52</v>
+        <v>3.99</v>
       </c>
       <c r="L11" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M11">
-        <v>0.1331460674157303</v>
+        <v>-0.09876883759408603</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1787,40 +2321,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12">
-        <v>20160804</v>
+        <v>203</v>
+      </c>
+      <c r="D12" t="s">
+        <v>234</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12">
+        <v>247</v>
+      </c>
+      <c r="F12">
         <v>1.5</v>
       </c>
-      <c r="I12">
-        <v>0.25</v>
+      <c r="G12">
+        <v>0.25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>339</v>
+      </c>
+      <c r="I12" t="s">
+        <v>234</v>
       </c>
       <c r="J12" t="s">
-        <v>261</v>
+        <v>422</v>
       </c>
       <c r="K12">
-        <v>11.48</v>
+        <v>26.62</v>
       </c>
       <c r="L12" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M12">
-        <v>-0.1135184161056897</v>
+        <v>-0.1240884886268047</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1828,40 +2362,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13">
-        <v>20140904</v>
+        <v>204</v>
+      </c>
+      <c r="D13" t="s">
+        <v>234</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" t="s">
-        <v>200</v>
-      </c>
-      <c r="H13">
+        <v>248</v>
+      </c>
+      <c r="F13">
         <v>1.5</v>
       </c>
-      <c r="I13">
-        <v>0.25</v>
+      <c r="G13">
+        <v>0.25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>340</v>
+      </c>
+      <c r="I13" t="s">
+        <v>234</v>
       </c>
       <c r="J13" t="s">
-        <v>261</v>
+        <v>423</v>
       </c>
       <c r="K13">
-        <v>1.01</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L13" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M13">
-        <v>-0.124199330081683</v>
+        <v>-0.2149118978490656</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1869,40 +2403,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14">
-        <v>20140509</v>
+        <v>204</v>
+      </c>
+      <c r="D14" t="s">
+        <v>234</v>
       </c>
       <c r="E14" t="s">
-        <v>186</v>
-      </c>
-      <c r="F14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" t="s">
-        <v>202</v>
-      </c>
-      <c r="H14">
+        <v>249</v>
+      </c>
+      <c r="F14">
         <v>1.5</v>
       </c>
-      <c r="I14">
-        <v>0.25</v>
+      <c r="G14">
+        <v>0.25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>332</v>
+      </c>
+      <c r="I14" t="s">
+        <v>234</v>
       </c>
       <c r="J14" t="s">
-        <v>262</v>
+        <v>424</v>
       </c>
       <c r="K14">
-        <v>94.77</v>
+        <v>42.36</v>
       </c>
       <c r="L14" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M14">
-        <v>-0.1508443635676678</v>
+        <v>0.1120910598522539</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1910,40 +2444,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15">
-        <v>20190904</v>
+        <v>204</v>
+      </c>
+      <c r="D15" t="s">
+        <v>234</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" t="s">
-        <v>203</v>
-      </c>
-      <c r="H15">
+        <v>250</v>
+      </c>
+      <c r="F15">
         <v>1.5</v>
       </c>
-      <c r="I15">
-        <v>0.25</v>
+      <c r="G15">
+        <v>0.25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>341</v>
+      </c>
+      <c r="I15" t="s">
+        <v>411</v>
       </c>
       <c r="J15" t="s">
-        <v>262</v>
+        <v>424</v>
       </c>
       <c r="K15">
-        <v>23.31</v>
+        <v>22.52</v>
       </c>
       <c r="L15" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M15">
-        <v>-0.1858070842014952</v>
+        <v>0.1331460674157303</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1951,40 +2485,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16">
-        <v>20190321</v>
+        <v>204</v>
+      </c>
+      <c r="D16" t="s">
+        <v>234</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" t="s">
-        <v>204</v>
-      </c>
-      <c r="H16">
+        <v>251</v>
+      </c>
+      <c r="F16">
         <v>1.5</v>
       </c>
-      <c r="I16">
-        <v>0.25</v>
+      <c r="G16">
+        <v>0.25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>342</v>
+      </c>
+      <c r="I16" t="s">
+        <v>411</v>
       </c>
       <c r="J16" t="s">
-        <v>263</v>
+        <v>425</v>
       </c>
       <c r="K16">
-        <v>8.949999999999999</v>
+        <v>11.48</v>
       </c>
       <c r="L16" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M16">
-        <v>-0.2046870244699251</v>
+        <v>-0.1135184161056897</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1992,40 +2526,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17">
-        <v>20200430</v>
+        <v>204</v>
+      </c>
+      <c r="D17" t="s">
+        <v>234</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" t="s">
-        <v>205</v>
-      </c>
-      <c r="H17">
+        <v>252</v>
+      </c>
+      <c r="F17">
         <v>1.5</v>
       </c>
-      <c r="I17">
-        <v>0.25</v>
+      <c r="G17">
+        <v>0.25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>341</v>
+      </c>
+      <c r="I17" t="s">
+        <v>411</v>
       </c>
       <c r="J17" t="s">
-        <v>264</v>
+        <v>425</v>
       </c>
       <c r="K17">
-        <v>3.26</v>
+        <v>1.01</v>
       </c>
       <c r="L17" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M17">
-        <v>-0.07810427863474566</v>
+        <v>-0.124199330081683</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2033,40 +2567,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18">
-        <v>20150824</v>
+        <v>205</v>
+      </c>
+      <c r="D18" t="s">
+        <v>234</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" t="s">
-        <v>189</v>
-      </c>
-      <c r="G18" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18">
+        <v>253</v>
+      </c>
+      <c r="F18">
         <v>1.5</v>
       </c>
-      <c r="I18">
-        <v>0.25</v>
+      <c r="G18">
+        <v>0.25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>343</v>
+      </c>
+      <c r="I18" t="s">
+        <v>234</v>
       </c>
       <c r="J18" t="s">
-        <v>265</v>
+        <v>426</v>
       </c>
       <c r="K18">
-        <v>21.21</v>
+        <v>68.3</v>
       </c>
       <c r="L18" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M18">
-        <v>-0.2100685648124769</v>
+        <v>-0.1557969376351913</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2074,40 +2608,40 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19">
-        <v>20190328</v>
+        <v>205</v>
+      </c>
+      <c r="D19" t="s">
+        <v>234</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19">
+        <v>254</v>
+      </c>
+      <c r="F19">
         <v>1.5</v>
       </c>
-      <c r="I19">
-        <v>0.25</v>
+      <c r="G19">
+        <v>0.25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>344</v>
+      </c>
+      <c r="I19" t="s">
+        <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>265</v>
+        <v>426</v>
       </c>
       <c r="K19">
-        <v>3.7</v>
+        <v>94.77</v>
       </c>
       <c r="L19" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M19">
-        <v>-0.1477258071580912</v>
+        <v>-0.1508443635676678</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2115,40 +2649,40 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20">
-        <v>20190426</v>
+        <v>205</v>
+      </c>
+      <c r="D20" t="s">
+        <v>234</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" t="s">
-        <v>186</v>
-      </c>
-      <c r="G20" t="s">
-        <v>208</v>
-      </c>
-      <c r="H20">
+        <v>255</v>
+      </c>
+      <c r="F20">
         <v>1.5</v>
       </c>
-      <c r="I20">
-        <v>0.25</v>
+      <c r="G20">
+        <v>0.25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I20" t="s">
+        <v>234</v>
       </c>
       <c r="J20" t="s">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="K20">
-        <v>15.08</v>
+        <v>23.31</v>
       </c>
       <c r="L20" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M20">
-        <v>-0.2620510048646258</v>
+        <v>-0.1858070842014952</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2156,40 +2690,40 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21">
-        <v>20051116</v>
+        <v>205</v>
+      </c>
+      <c r="D21" t="s">
+        <v>234</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" t="s">
-        <v>186</v>
-      </c>
-      <c r="G21" t="s">
-        <v>209</v>
-      </c>
-      <c r="H21">
+        <v>256</v>
+      </c>
+      <c r="F21">
         <v>1.5</v>
       </c>
-      <c r="I21">
-        <v>0.25</v>
+      <c r="G21">
+        <v>0.25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>346</v>
+      </c>
+      <c r="I21" t="s">
+        <v>411</v>
       </c>
       <c r="J21" t="s">
-        <v>267</v>
+        <v>427</v>
       </c>
       <c r="K21">
-        <v>294.5</v>
+        <v>58.02</v>
       </c>
       <c r="L21" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M21">
-        <v>-0.2390288648021272</v>
+        <v>-0.1122624035329784</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2197,40 +2731,40 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22">
-        <v>20131217</v>
+        <v>206</v>
+      </c>
+      <c r="D22" t="s">
+        <v>234</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" t="s">
-        <v>189</v>
-      </c>
-      <c r="G22" t="s">
-        <v>204</v>
-      </c>
-      <c r="H22">
+        <v>257</v>
+      </c>
+      <c r="F22">
         <v>1.5</v>
       </c>
-      <c r="I22">
-        <v>0.2</v>
+      <c r="G22">
+        <v>0.25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>347</v>
+      </c>
+      <c r="I22" t="s">
+        <v>234</v>
       </c>
       <c r="J22" t="s">
-        <v>268</v>
+        <v>428</v>
       </c>
       <c r="K22">
-        <v>27.52</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="L22" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M22">
-        <v>-0.2537031202497179</v>
+        <v>-0.2046870244699251</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2238,40 +2772,40 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23">
-        <v>20140826</v>
+        <v>207</v>
+      </c>
+      <c r="D23" t="s">
+        <v>234</v>
       </c>
       <c r="E23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F23" t="s">
-        <v>186</v>
-      </c>
-      <c r="G23" t="s">
-        <v>210</v>
-      </c>
-      <c r="H23">
+        <v>258</v>
+      </c>
+      <c r="F23">
         <v>1.5</v>
       </c>
-      <c r="I23">
-        <v>0.25</v>
+      <c r="G23">
+        <v>0.25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>348</v>
+      </c>
+      <c r="I23" t="s">
+        <v>234</v>
       </c>
       <c r="J23" t="s">
-        <v>269</v>
+        <v>429</v>
       </c>
       <c r="K23">
-        <v>1.47</v>
+        <v>3.26</v>
       </c>
       <c r="L23" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M23">
-        <v>-0.1677032244889237</v>
+        <v>-0.07810427863474566</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2279,40 +2813,40 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24">
-        <v>20161222</v>
+        <v>208</v>
+      </c>
+      <c r="D24" t="s">
+        <v>234</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F24" t="s">
-        <v>189</v>
-      </c>
-      <c r="G24" t="s">
-        <v>211</v>
-      </c>
-      <c r="H24">
+        <v>259</v>
+      </c>
+      <c r="F24">
         <v>1.5</v>
       </c>
-      <c r="I24">
-        <v>0.25</v>
+      <c r="G24">
+        <v>0.25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>349</v>
+      </c>
+      <c r="I24" t="s">
+        <v>411</v>
       </c>
       <c r="J24" t="s">
-        <v>270</v>
+        <v>430</v>
       </c>
       <c r="K24">
-        <v>49.62</v>
+        <v>21.21</v>
       </c>
       <c r="L24" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M24">
-        <v>-0.1914638536125293</v>
+        <v>-0.2100685648124769</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2320,40 +2854,40 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25">
-        <v>20160519</v>
+        <v>208</v>
+      </c>
+      <c r="D25" t="s">
+        <v>234</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" t="s">
-        <v>212</v>
-      </c>
-      <c r="H25">
+        <v>260</v>
+      </c>
+      <c r="F25">
         <v>1.5</v>
       </c>
-      <c r="I25">
-        <v>0.25</v>
+      <c r="G25">
+        <v>0.25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>350</v>
+      </c>
+      <c r="I25" t="s">
+        <v>411</v>
       </c>
       <c r="J25" t="s">
-        <v>271</v>
+        <v>430</v>
       </c>
       <c r="K25">
-        <v>1.64</v>
+        <v>3.7</v>
       </c>
       <c r="L25" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M25">
-        <v>-0.2983818770226536</v>
+        <v>-0.1477258071580912</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2361,40 +2895,40 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26">
-        <v>20160525</v>
+        <v>209</v>
+      </c>
+      <c r="D26" t="s">
+        <v>234</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
-      </c>
-      <c r="F26" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" t="s">
-        <v>212</v>
-      </c>
-      <c r="H26">
+        <v>261</v>
+      </c>
+      <c r="F26">
         <v>1.5</v>
       </c>
-      <c r="I26">
-        <v>0.25</v>
+      <c r="G26">
+        <v>0.25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>351</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
       </c>
       <c r="J26" t="s">
-        <v>272</v>
+        <v>431</v>
       </c>
       <c r="K26">
-        <v>0.97</v>
+        <v>15.08</v>
       </c>
       <c r="L26" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M26">
-        <v>-0.1414759623913429</v>
+        <v>-0.2620510048646258</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2402,40 +2936,40 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27">
-        <v>20160819</v>
+        <v>209</v>
+      </c>
+      <c r="D27" t="s">
+        <v>234</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" t="s">
-        <v>213</v>
-      </c>
-      <c r="H27">
-        <v>0.6</v>
-      </c>
-      <c r="I27">
-        <v>0.2</v>
+        <v>262</v>
+      </c>
+      <c r="F27">
+        <v>1.5</v>
+      </c>
+      <c r="G27">
+        <v>0.25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>347</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
       </c>
       <c r="J27" t="s">
-        <v>273</v>
+        <v>432</v>
       </c>
       <c r="K27">
-        <v>0.82</v>
+        <v>128.28</v>
       </c>
       <c r="L27" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M27">
-        <v>-0.1180141287284144</v>
+        <v>-0.2813829782345288</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2443,40 +2977,40 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28">
-        <v>20141226</v>
+        <v>210</v>
+      </c>
+      <c r="D28" t="s">
+        <v>234</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G28" t="s">
-        <v>214</v>
-      </c>
-      <c r="H28">
+        <v>263</v>
+      </c>
+      <c r="F28">
         <v>1.5</v>
       </c>
-      <c r="I28">
-        <v>0.25</v>
+      <c r="G28">
+        <v>0.25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>352</v>
+      </c>
+      <c r="I28" t="s">
+        <v>234</v>
       </c>
       <c r="J28" t="s">
-        <v>274</v>
+        <v>433</v>
       </c>
       <c r="K28">
-        <v>3.07</v>
+        <v>294.5</v>
       </c>
       <c r="L28" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M28">
-        <v>-0.1464868253150956</v>
+        <v>-0.2390288648021272</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2484,40 +3018,40 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29">
-        <v>20050316</v>
+        <v>210</v>
+      </c>
+      <c r="D29" t="s">
+        <v>234</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
-      </c>
-      <c r="F29" t="s">
-        <v>186</v>
-      </c>
-      <c r="G29" t="s">
-        <v>215</v>
-      </c>
-      <c r="H29">
+        <v>264</v>
+      </c>
+      <c r="F29">
         <v>1.5</v>
       </c>
-      <c r="I29">
-        <v>0.25</v>
+      <c r="G29">
+        <v>0.25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>353</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
       </c>
       <c r="J29" t="s">
-        <v>275</v>
+        <v>434</v>
       </c>
       <c r="K29">
-        <v>172.47</v>
+        <v>3.77</v>
       </c>
       <c r="L29" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M29">
-        <v>-0.1354729728389058</v>
+        <v>-0.2309082693176683</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2525,40 +3059,40 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30">
-        <v>20140703</v>
+        <v>211</v>
+      </c>
+      <c r="D30" t="s">
+        <v>234</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
-      </c>
-      <c r="F30" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30" t="s">
-        <v>204</v>
-      </c>
-      <c r="H30">
+        <v>265</v>
+      </c>
+      <c r="F30">
         <v>1.5</v>
       </c>
-      <c r="I30">
-        <v>0.25</v>
+      <c r="G30">
+        <v>0.2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>347</v>
+      </c>
+      <c r="I30" t="s">
+        <v>411</v>
       </c>
       <c r="J30" t="s">
-        <v>276</v>
+        <v>435</v>
       </c>
       <c r="K30">
-        <v>13.35</v>
+        <v>27.52</v>
       </c>
       <c r="L30" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M30">
-        <v>-0.1885149433731098</v>
+        <v>-0.2537031202497179</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2566,40 +3100,40 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31">
-        <v>20180705</v>
+        <v>211</v>
+      </c>
+      <c r="D31" t="s">
+        <v>234</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" t="s">
-        <v>189</v>
-      </c>
-      <c r="G31" t="s">
-        <v>216</v>
-      </c>
-      <c r="H31">
+        <v>266</v>
+      </c>
+      <c r="F31">
         <v>1.5</v>
       </c>
-      <c r="I31">
-        <v>0.25</v>
+      <c r="G31">
+        <v>0.25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>353</v>
+      </c>
+      <c r="I31" t="s">
+        <v>234</v>
       </c>
       <c r="J31" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="K31">
-        <v>10.53</v>
+        <v>1.47</v>
       </c>
       <c r="L31" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M31">
-        <v>-0.1147130086055644</v>
+        <v>-0.1677032244889237</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2607,40 +3141,40 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32">
-        <v>20171106</v>
+        <v>212</v>
+      </c>
+      <c r="D32" t="s">
+        <v>234</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
-      </c>
-      <c r="F32" t="s">
-        <v>187</v>
-      </c>
-      <c r="G32" t="s">
-        <v>217</v>
-      </c>
-      <c r="H32">
+        <v>267</v>
+      </c>
+      <c r="F32">
         <v>1.5</v>
       </c>
-      <c r="I32">
-        <v>0.25</v>
+      <c r="G32">
+        <v>0.25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>354</v>
+      </c>
+      <c r="I32" t="s">
+        <v>411</v>
       </c>
       <c r="J32" t="s">
-        <v>278</v>
+        <v>437</v>
       </c>
       <c r="K32">
-        <v>46.95</v>
+        <v>49.62</v>
       </c>
       <c r="L32" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M32">
-        <v>-0.08680947012401356</v>
+        <v>-0.1914638536125293</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2648,40 +3182,40 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33">
-        <v>20180907</v>
+        <v>212</v>
+      </c>
+      <c r="D33" t="s">
+        <v>234</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
-      </c>
-      <c r="F33" t="s">
-        <v>186</v>
-      </c>
-      <c r="G33" t="s">
-        <v>218</v>
-      </c>
-      <c r="H33">
+        <v>268</v>
+      </c>
+      <c r="F33">
         <v>1.5</v>
       </c>
-      <c r="I33">
-        <v>0.25</v>
+      <c r="G33">
+        <v>0.25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>355</v>
+      </c>
+      <c r="I33" t="s">
+        <v>234</v>
       </c>
       <c r="J33" t="s">
-        <v>279</v>
+        <v>438</v>
       </c>
       <c r="K33">
-        <v>3.98</v>
+        <v>42.15</v>
       </c>
       <c r="L33" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M33">
-        <v>-0.4022382643902067</v>
+        <v>-0.2607589077158273</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2689,40 +3223,40 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34">
-        <v>20150806</v>
+        <v>212</v>
+      </c>
+      <c r="D34" t="s">
+        <v>234</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
-      </c>
-      <c r="F34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34" t="s">
-        <v>219</v>
-      </c>
-      <c r="H34">
+        <v>269</v>
+      </c>
+      <c r="F34">
         <v>1.5</v>
       </c>
-      <c r="I34">
-        <v>0.25</v>
+      <c r="G34">
+        <v>0.25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>356</v>
+      </c>
+      <c r="I34" t="s">
+        <v>411</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>439</v>
       </c>
       <c r="K34">
-        <v>3.65</v>
+        <v>1.64</v>
       </c>
       <c r="L34" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M34">
-        <v>-0.1709310589907604</v>
+        <v>-0.2983818770226536</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2730,40 +3264,40 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35">
-        <v>20171023</v>
+        <v>213</v>
+      </c>
+      <c r="D35" t="s">
+        <v>234</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" t="s">
-        <v>189</v>
-      </c>
-      <c r="G35" t="s">
-        <v>220</v>
-      </c>
-      <c r="H35">
+        <v>270</v>
+      </c>
+      <c r="F35">
         <v>1.5</v>
       </c>
-      <c r="I35">
-        <v>0.25</v>
+      <c r="G35">
+        <v>0.25</v>
+      </c>
+      <c r="H35" t="s">
+        <v>357</v>
+      </c>
+      <c r="I35" t="s">
+        <v>234</v>
       </c>
       <c r="J35" t="s">
-        <v>281</v>
+        <v>440</v>
       </c>
       <c r="K35">
-        <v>2.82</v>
+        <v>6.49</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M35">
-        <v>-0.09368102061431403</v>
+        <v>-0.1734215605183346</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2771,40 +3305,40 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36">
-        <v>20191017</v>
+        <v>213</v>
+      </c>
+      <c r="D36" t="s">
+        <v>234</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" t="s">
-        <v>186</v>
-      </c>
-      <c r="G36" t="s">
-        <v>221</v>
-      </c>
-      <c r="H36">
-        <v>1.5</v>
-      </c>
-      <c r="I36">
-        <v>0.25</v>
+        <v>271</v>
+      </c>
+      <c r="F36">
+        <v>1.38</v>
+      </c>
+      <c r="G36">
+        <v>0.25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>358</v>
+      </c>
+      <c r="I36" t="s">
+        <v>234</v>
       </c>
       <c r="J36" t="s">
-        <v>282</v>
+        <v>440</v>
       </c>
       <c r="K36">
-        <v>66.03</v>
+        <v>20.62</v>
       </c>
       <c r="L36" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M36">
-        <v>-0.2459890408253937</v>
+        <v>-0.09157798947571925</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2812,40 +3346,40 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37">
-        <v>20051103</v>
+        <v>213</v>
+      </c>
+      <c r="D37" t="s">
+        <v>235</v>
       </c>
       <c r="E37" t="s">
-        <v>186</v>
-      </c>
-      <c r="F37" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" t="s">
-        <v>222</v>
-      </c>
-      <c r="H37">
+        <v>272</v>
+      </c>
+      <c r="F37">
         <v>1.5</v>
       </c>
-      <c r="I37">
-        <v>0.25</v>
+      <c r="G37">
+        <v>0.25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>359</v>
+      </c>
+      <c r="I37" t="s">
+        <v>235</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>441</v>
       </c>
       <c r="K37">
-        <v>210.9</v>
+        <v>35.14</v>
       </c>
       <c r="L37" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M37">
-        <v>-0.2584064744558414</v>
+        <v>-0.07014388598038161</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2853,40 +3387,40 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38">
-        <v>20100422</v>
+        <v>214</v>
+      </c>
+      <c r="D38" t="s">
+        <v>234</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
-      </c>
-      <c r="F38" t="s">
-        <v>186</v>
-      </c>
-      <c r="G38" t="s">
-        <v>223</v>
-      </c>
-      <c r="H38">
+        <v>273</v>
+      </c>
+      <c r="F38">
         <v>1.5</v>
       </c>
-      <c r="I38">
-        <v>0.25</v>
+      <c r="G38">
+        <v>0.25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>356</v>
+      </c>
+      <c r="I38" t="s">
+        <v>411</v>
       </c>
       <c r="J38" t="s">
-        <v>284</v>
+        <v>442</v>
       </c>
       <c r="K38">
-        <v>252.62</v>
+        <v>0.97</v>
       </c>
       <c r="L38" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M38">
-        <v>-0.2692977917970776</v>
+        <v>-0.1414759623913429</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2894,40 +3428,40 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39">
-        <v>20120405</v>
+        <v>215</v>
+      </c>
+      <c r="D39" t="s">
+        <v>234</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
-      </c>
-      <c r="F39" t="s">
-        <v>186</v>
-      </c>
-      <c r="G39" t="s">
-        <v>223</v>
-      </c>
-      <c r="H39">
-        <v>1.5</v>
-      </c>
-      <c r="I39">
-        <v>0.25</v>
+        <v>274</v>
+      </c>
+      <c r="F39">
+        <v>0.6</v>
+      </c>
+      <c r="G39">
+        <v>0.2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>360</v>
+      </c>
+      <c r="I39" t="s">
+        <v>411</v>
       </c>
       <c r="J39" t="s">
-        <v>285</v>
+        <v>443</v>
       </c>
       <c r="K39">
-        <v>50.81</v>
+        <v>0.82</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M39">
-        <v>-0.2622083227874642</v>
+        <v>-0.1180141287284144</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2935,40 +3469,40 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40">
-        <v>20210910</v>
+        <v>216</v>
+      </c>
+      <c r="D40" t="s">
+        <v>235</v>
       </c>
       <c r="E40" t="s">
-        <v>186</v>
-      </c>
-      <c r="F40" t="s">
-        <v>186</v>
-      </c>
-      <c r="G40" t="s">
-        <v>224</v>
-      </c>
-      <c r="H40">
+        <v>275</v>
+      </c>
+      <c r="F40">
         <v>1.5</v>
       </c>
-      <c r="I40">
-        <v>0.25</v>
+      <c r="G40">
+        <v>0.25</v>
+      </c>
+      <c r="H40" t="s">
+        <v>361</v>
+      </c>
+      <c r="I40" t="s">
+        <v>235</v>
       </c>
       <c r="J40" t="s">
-        <v>286</v>
+        <v>444</v>
       </c>
       <c r="K40">
-        <v>173.81</v>
+        <v>3.07</v>
       </c>
       <c r="L40" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M40">
-        <v>-0.1442000145066188</v>
+        <v>-0.1464868253150956</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2976,40 +3510,40 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41">
-        <v>20170216</v>
+        <v>217</v>
+      </c>
+      <c r="D41" t="s">
+        <v>234</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
-      </c>
-      <c r="F41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G41" t="s">
-        <v>225</v>
-      </c>
-      <c r="H41">
-        <v>0.9</v>
-      </c>
-      <c r="I41">
-        <v>0.25</v>
+        <v>276</v>
+      </c>
+      <c r="F41">
+        <v>1.5</v>
+      </c>
+      <c r="G41">
+        <v>0.25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>362</v>
+      </c>
+      <c r="I41" t="s">
+        <v>234</v>
       </c>
       <c r="J41" t="s">
-        <v>287</v>
+        <v>445</v>
       </c>
       <c r="K41">
-        <v>25.59</v>
+        <v>12.44</v>
       </c>
       <c r="L41" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M41">
-        <v>-0.1499803663213614</v>
+        <v>-0.1023781893918099</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3017,40 +3551,40 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42">
-        <v>20171218</v>
+        <v>218</v>
+      </c>
+      <c r="D42" t="s">
+        <v>234</v>
       </c>
       <c r="E42" t="s">
-        <v>186</v>
-      </c>
-      <c r="F42" t="s">
-        <v>186</v>
-      </c>
-      <c r="G42" t="s">
-        <v>226</v>
-      </c>
-      <c r="H42">
-        <v>0.7</v>
-      </c>
-      <c r="I42">
-        <v>0.2</v>
+        <v>277</v>
+      </c>
+      <c r="F42">
+        <v>1.5</v>
+      </c>
+      <c r="G42">
+        <v>0.25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>363</v>
+      </c>
+      <c r="I42" t="s">
+        <v>234</v>
       </c>
       <c r="J42" t="s">
-        <v>288</v>
+        <v>446</v>
       </c>
       <c r="K42">
-        <v>7.57</v>
+        <v>172.47</v>
       </c>
       <c r="L42" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M42">
-        <v>-0.01033948844555386</v>
+        <v>-0.1354729728389058</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3058,40 +3592,40 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43">
-        <v>20180322</v>
+        <v>219</v>
+      </c>
+      <c r="D43" t="s">
+        <v>234</v>
       </c>
       <c r="E43" t="s">
-        <v>186</v>
-      </c>
-      <c r="F43" t="s">
-        <v>186</v>
-      </c>
-      <c r="G43" t="s">
-        <v>226</v>
-      </c>
-      <c r="H43">
-        <v>0.7</v>
-      </c>
-      <c r="I43">
-        <v>0.2</v>
+        <v>278</v>
+      </c>
+      <c r="F43">
+        <v>1.5</v>
+      </c>
+      <c r="G43">
+        <v>0.25</v>
+      </c>
+      <c r="H43" t="s">
+        <v>364</v>
+      </c>
+      <c r="I43" t="s">
+        <v>411</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>447</v>
       </c>
       <c r="K43">
-        <v>13.62</v>
+        <v>37.43</v>
       </c>
       <c r="L43" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M43">
-        <v>-0.01213900063396041</v>
+        <v>-0.2042987407729049</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3099,40 +3633,40 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44">
-        <v>20150605</v>
+        <v>219</v>
+      </c>
+      <c r="D44" t="s">
+        <v>235</v>
       </c>
       <c r="E44" t="s">
-        <v>186</v>
-      </c>
-      <c r="F44" t="s">
-        <v>189</v>
-      </c>
-      <c r="G44" t="s">
-        <v>227</v>
-      </c>
-      <c r="H44">
-        <v>0.6</v>
-      </c>
-      <c r="I44">
-        <v>0.1</v>
+        <v>279</v>
+      </c>
+      <c r="F44">
+        <v>1.5</v>
+      </c>
+      <c r="G44">
+        <v>0.25</v>
+      </c>
+      <c r="H44" t="s">
+        <v>347</v>
+      </c>
+      <c r="I44" t="s">
+        <v>235</v>
       </c>
       <c r="J44" t="s">
-        <v>288</v>
+        <v>448</v>
       </c>
       <c r="K44">
-        <v>3.72</v>
+        <v>13.35</v>
       </c>
       <c r="L44" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M44">
-        <v>-0.01444403089503457</v>
+        <v>-0.1885149433731098</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3140,40 +3674,40 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45">
-        <v>20150529</v>
+        <v>220</v>
+      </c>
+      <c r="D45" t="s">
+        <v>234</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45" t="s">
-        <v>186</v>
-      </c>
-      <c r="G45" t="s">
-        <v>225</v>
-      </c>
-      <c r="H45">
-        <v>0.6</v>
-      </c>
-      <c r="I45">
-        <v>0.25</v>
+        <v>280</v>
+      </c>
+      <c r="F45">
+        <v>1.5</v>
+      </c>
+      <c r="G45">
+        <v>0.25</v>
+      </c>
+      <c r="H45" t="s">
+        <v>365</v>
+      </c>
+      <c r="I45" t="s">
+        <v>411</v>
       </c>
       <c r="J45" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="K45">
-        <v>52.92</v>
+        <v>10.53</v>
       </c>
       <c r="L45" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M45">
-        <v>-0.130550284629981</v>
+        <v>-0.1147130086055644</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3181,40 +3715,40 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46">
-        <v>20101109</v>
+        <v>220</v>
+      </c>
+      <c r="D46" t="s">
+        <v>235</v>
       </c>
       <c r="E46" t="s">
-        <v>188</v>
-      </c>
-      <c r="F46" t="s">
-        <v>188</v>
-      </c>
-      <c r="G46" t="s">
-        <v>228</v>
-      </c>
-      <c r="H46">
-        <v>0.3</v>
-      </c>
-      <c r="I46">
-        <v>0.1</v>
+        <v>281</v>
+      </c>
+      <c r="F46">
+        <v>1.5</v>
+      </c>
+      <c r="G46">
+        <v>0.25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>366</v>
+      </c>
+      <c r="I46" t="s">
+        <v>235</v>
       </c>
       <c r="J46" t="s">
-        <v>291</v>
+        <v>450</v>
       </c>
       <c r="K46">
-        <v>108.14</v>
+        <v>46.95</v>
       </c>
       <c r="L46" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M46">
-        <v>0.01565789153736818</v>
+        <v>-0.08680947012401356</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3222,40 +3756,40 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
-      </c>
-      <c r="D47">
-        <v>20191015</v>
+        <v>221</v>
+      </c>
+      <c r="D47" t="s">
+        <v>234</v>
       </c>
       <c r="E47" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" t="s">
-        <v>188</v>
-      </c>
-      <c r="G47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H47">
-        <v>0.3</v>
-      </c>
-      <c r="I47">
-        <v>0.1</v>
+        <v>282</v>
+      </c>
+      <c r="F47">
+        <v>1.5</v>
+      </c>
+      <c r="G47">
+        <v>0.25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>367</v>
+      </c>
+      <c r="I47" t="s">
+        <v>411</v>
       </c>
       <c r="J47" t="s">
-        <v>292</v>
+        <v>451</v>
       </c>
       <c r="K47">
-        <v>176.35</v>
+        <v>21.06</v>
       </c>
       <c r="L47" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M47">
-        <v>0.01460591585522692</v>
+        <v>-0.3423851111732106</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3263,40 +3797,40 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48">
-        <v>20140523</v>
+        <v>221</v>
+      </c>
+      <c r="D48" t="s">
+        <v>234</v>
       </c>
       <c r="E48" t="s">
-        <v>188</v>
-      </c>
-      <c r="F48" t="s">
-        <v>188</v>
-      </c>
-      <c r="G48" t="s">
-        <v>230</v>
-      </c>
-      <c r="H48">
-        <v>0.7</v>
-      </c>
-      <c r="I48">
-        <v>0.2</v>
+        <v>283</v>
+      </c>
+      <c r="F48">
+        <v>1.5</v>
+      </c>
+      <c r="G48">
+        <v>0.25</v>
+      </c>
+      <c r="H48" t="s">
+        <v>368</v>
+      </c>
+      <c r="I48" t="s">
+        <v>234</v>
       </c>
       <c r="J48" t="s">
-        <v>293</v>
+        <v>452</v>
       </c>
       <c r="K48">
-        <v>17.07</v>
+        <v>3.98</v>
       </c>
       <c r="L48" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M48">
-        <v>0.01397306523630915</v>
+        <v>-0.4022382643902067</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3304,40 +3838,40 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49">
-        <v>20171211</v>
+        <v>222</v>
+      </c>
+      <c r="D49" t="s">
+        <v>234</v>
       </c>
       <c r="E49" t="s">
-        <v>188</v>
-      </c>
-      <c r="F49" t="s">
-        <v>188</v>
-      </c>
-      <c r="G49" t="s">
-        <v>231</v>
-      </c>
-      <c r="H49">
-        <v>0.5</v>
-      </c>
-      <c r="I49">
-        <v>0.15</v>
+        <v>284</v>
+      </c>
+      <c r="F49">
+        <v>1.5</v>
+      </c>
+      <c r="G49">
+        <v>0.25</v>
+      </c>
+      <c r="H49" t="s">
+        <v>369</v>
+      </c>
+      <c r="I49" t="s">
+        <v>234</v>
       </c>
       <c r="J49" t="s">
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="K49">
-        <v>12.85</v>
+        <v>57.83</v>
       </c>
       <c r="L49" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M49">
-        <v>0.01100756119342403</v>
+        <v>-0.2330122033161463</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3345,40 +3879,40 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50">
-        <v>20141208</v>
+        <v>223</v>
+      </c>
+      <c r="D50" t="s">
+        <v>235</v>
       </c>
       <c r="E50" t="s">
-        <v>188</v>
-      </c>
-      <c r="F50" t="s">
-        <v>188</v>
-      </c>
-      <c r="G50" t="s">
-        <v>232</v>
-      </c>
-      <c r="H50">
-        <v>0.7</v>
-      </c>
-      <c r="I50">
-        <v>0.2</v>
+        <v>285</v>
+      </c>
+      <c r="F50">
+        <v>1.5</v>
+      </c>
+      <c r="G50">
+        <v>0.25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>370</v>
+      </c>
+      <c r="I50" t="s">
+        <v>235</v>
       </c>
       <c r="J50" t="s">
-        <v>295</v>
+        <v>454</v>
       </c>
       <c r="K50">
-        <v>9.640000000000001</v>
+        <v>3.65</v>
       </c>
       <c r="L50" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M50">
-        <v>0.0128599384959463</v>
+        <v>-0.1709310589907604</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3386,40 +3920,40 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D51">
-        <v>20130507</v>
+        <v>224</v>
+      </c>
+      <c r="D51" t="s">
+        <v>234</v>
       </c>
       <c r="E51" t="s">
-        <v>188</v>
-      </c>
-      <c r="F51" t="s">
-        <v>188</v>
-      </c>
-      <c r="G51" t="s">
-        <v>233</v>
-      </c>
-      <c r="H51">
-        <v>0.7</v>
-      </c>
-      <c r="I51">
-        <v>0.2</v>
+        <v>286</v>
+      </c>
+      <c r="F51">
+        <v>1.5</v>
+      </c>
+      <c r="G51">
+        <v>0.25</v>
+      </c>
+      <c r="H51" t="s">
+        <v>371</v>
+      </c>
+      <c r="I51" t="s">
+        <v>411</v>
       </c>
       <c r="J51" t="s">
-        <v>296</v>
+        <v>455</v>
       </c>
       <c r="K51">
-        <v>3.09</v>
+        <v>2.82</v>
       </c>
       <c r="L51" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M51">
-        <v>0.01599519938996287</v>
+        <v>-0.09368102061431403</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3427,40 +3961,40 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52">
-        <v>20191128</v>
+        <v>225</v>
+      </c>
+      <c r="D52" t="s">
+        <v>234</v>
       </c>
       <c r="E52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" t="s">
-        <v>190</v>
-      </c>
-      <c r="G52" t="s">
-        <v>234</v>
-      </c>
-      <c r="H52">
-        <v>0.7</v>
-      </c>
-      <c r="I52">
-        <v>0.2</v>
+        <v>287</v>
+      </c>
+      <c r="F52">
+        <v>1.5</v>
+      </c>
+      <c r="G52">
+        <v>0.25</v>
+      </c>
+      <c r="H52" t="s">
+        <v>372</v>
+      </c>
+      <c r="I52" t="s">
+        <v>234</v>
       </c>
       <c r="J52" t="s">
-        <v>297</v>
+        <v>456</v>
       </c>
       <c r="K52">
-        <v>99.87</v>
+        <v>66.03</v>
       </c>
       <c r="L52" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M52">
-        <v>0.02265353418308222</v>
+        <v>-0.2459890408253937</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3468,40 +4002,40 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53">
-        <v>20150302</v>
+        <v>225</v>
+      </c>
+      <c r="D53" t="s">
+        <v>234</v>
       </c>
       <c r="E53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F53" t="s">
-        <v>188</v>
-      </c>
-      <c r="G53" t="s">
-        <v>235</v>
-      </c>
-      <c r="H53">
-        <v>0.6</v>
-      </c>
-      <c r="I53">
-        <v>0.2</v>
+        <v>288</v>
+      </c>
+      <c r="F53">
+        <v>1.5</v>
+      </c>
+      <c r="G53">
+        <v>0.25</v>
+      </c>
+      <c r="H53" t="s">
+        <v>373</v>
+      </c>
+      <c r="I53" t="s">
+        <v>411</v>
       </c>
       <c r="J53" t="s">
-        <v>298</v>
+        <v>457</v>
       </c>
       <c r="K53">
-        <v>132.63</v>
+        <v>210.9</v>
       </c>
       <c r="L53" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M53">
-        <v>0.01983002832861192</v>
+        <v>-0.2584064744558414</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3509,40 +4043,40 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54">
-        <v>20150429</v>
+        <v>225</v>
+      </c>
+      <c r="D54" t="s">
+        <v>234</v>
       </c>
       <c r="E54" t="s">
-        <v>187</v>
-      </c>
-      <c r="F54" t="s">
-        <v>191</v>
-      </c>
-      <c r="G54" t="s">
-        <v>236</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>0.22</v>
+        <v>289</v>
+      </c>
+      <c r="F54">
+        <v>1.5</v>
+      </c>
+      <c r="G54">
+        <v>0.25</v>
+      </c>
+      <c r="H54" t="s">
+        <v>374</v>
+      </c>
+      <c r="I54" t="s">
+        <v>234</v>
       </c>
       <c r="J54" t="s">
-        <v>299</v>
+        <v>458</v>
       </c>
       <c r="K54">
-        <v>37.38</v>
+        <v>252.62</v>
       </c>
       <c r="L54" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M54">
-        <v>-0.1086587437110686</v>
+        <v>-0.2692977917970776</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3550,40 +4084,40 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55">
-        <v>20150506</v>
+        <v>225</v>
+      </c>
+      <c r="D55" t="s">
+        <v>234</v>
       </c>
       <c r="E55" t="s">
-        <v>187</v>
-      </c>
-      <c r="F55" t="s">
-        <v>191</v>
-      </c>
-      <c r="G55" t="s">
-        <v>237</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>0.22</v>
+        <v>290</v>
+      </c>
+      <c r="F55">
+        <v>1.5</v>
+      </c>
+      <c r="G55">
+        <v>0.25</v>
+      </c>
+      <c r="H55" t="s">
+        <v>374</v>
+      </c>
+      <c r="I55" t="s">
+        <v>234</v>
       </c>
       <c r="J55" t="s">
-        <v>300</v>
+        <v>459</v>
       </c>
       <c r="K55">
-        <v>11.95</v>
+        <v>50.81</v>
       </c>
       <c r="L55" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M55">
-        <v>-0.2464135008437278</v>
+        <v>-0.2622083227874642</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3591,40 +4125,40 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56">
-        <v>20150330</v>
+        <v>225</v>
+      </c>
+      <c r="D56" t="s">
+        <v>234</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
-      </c>
-      <c r="F56" t="s">
-        <v>191</v>
-      </c>
-      <c r="G56" t="s">
-        <v>238</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>0.22</v>
+        <v>291</v>
+      </c>
+      <c r="F56">
+        <v>1.3</v>
+      </c>
+      <c r="G56">
+        <v>0.25</v>
+      </c>
+      <c r="H56" t="s">
+        <v>375</v>
+      </c>
+      <c r="I56" t="s">
+        <v>234</v>
       </c>
       <c r="J56" t="s">
-        <v>301</v>
+        <v>460</v>
       </c>
       <c r="K56">
-        <v>88.17</v>
+        <v>38.04</v>
       </c>
       <c r="L56" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M56">
-        <v>-0.2750170199572944</v>
+        <v>-0.1311395293509498</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3632,40 +4166,40 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57">
-        <v>20200807</v>
+        <v>226</v>
+      </c>
+      <c r="D57" t="s">
+        <v>234</v>
       </c>
       <c r="E57" t="s">
-        <v>187</v>
-      </c>
-      <c r="F57" t="s">
-        <v>191</v>
-      </c>
-      <c r="G57" t="s">
-        <v>239</v>
-      </c>
-      <c r="H57">
-        <v>0.5</v>
-      </c>
-      <c r="I57">
-        <v>0.1</v>
+        <v>292</v>
+      </c>
+      <c r="F57">
+        <v>1.5</v>
+      </c>
+      <c r="G57">
+        <v>0.25</v>
+      </c>
+      <c r="H57" t="s">
+        <v>376</v>
+      </c>
+      <c r="I57" t="s">
+        <v>234</v>
       </c>
       <c r="J57" t="s">
-        <v>302</v>
+        <v>461</v>
       </c>
       <c r="K57">
-        <v>11.54</v>
+        <v>173.81</v>
       </c>
       <c r="L57" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M57">
-        <v>-0.04029824249955628</v>
+        <v>-0.1442000145066188</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3673,40 +4207,40 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
-      </c>
-      <c r="D58">
-        <v>20200806</v>
+        <v>226</v>
+      </c>
+      <c r="D58" t="s">
+        <v>234</v>
       </c>
       <c r="E58" t="s">
-        <v>187</v>
-      </c>
-      <c r="F58" t="s">
-        <v>191</v>
-      </c>
-      <c r="G58" t="s">
-        <v>240</v>
-      </c>
-      <c r="H58">
-        <v>0.5</v>
-      </c>
-      <c r="I58">
-        <v>0.15</v>
+        <v>293</v>
+      </c>
+      <c r="F58">
+        <v>0.9</v>
+      </c>
+      <c r="G58">
+        <v>0.25</v>
+      </c>
+      <c r="H58" t="s">
+        <v>377</v>
+      </c>
+      <c r="I58" t="s">
+        <v>234</v>
       </c>
       <c r="J58" t="s">
-        <v>303</v>
+        <v>462</v>
       </c>
       <c r="K58">
-        <v>7.74</v>
+        <v>25.59</v>
       </c>
       <c r="L58" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M58">
-        <v>-0.03720333547145606</v>
+        <v>-0.1499803663213614</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3714,40 +4248,40 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
-      </c>
-      <c r="D59">
-        <v>20150520</v>
+        <v>227</v>
+      </c>
+      <c r="D59" t="s">
+        <v>234</v>
       </c>
       <c r="E59" t="s">
-        <v>187</v>
-      </c>
-      <c r="F59" t="s">
-        <v>191</v>
-      </c>
-      <c r="G59" t="s">
-        <v>240</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
+        <v>294</v>
+      </c>
+      <c r="F59">
+        <v>0.7</v>
+      </c>
+      <c r="G59">
         <v>0.2</v>
       </c>
+      <c r="H59" t="s">
+        <v>378</v>
+      </c>
+      <c r="I59" t="s">
+        <v>234</v>
+      </c>
       <c r="J59" t="s">
-        <v>304</v>
+        <v>463</v>
       </c>
       <c r="K59">
-        <v>13.72</v>
+        <v>7.57</v>
       </c>
       <c r="L59" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M59">
-        <v>-0.04070416267445133</v>
+        <v>-0.01033948844555386</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3755,40 +4289,40 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60">
-        <v>20101102</v>
+        <v>227</v>
+      </c>
+      <c r="D60" t="s">
+        <v>234</v>
       </c>
       <c r="E60" t="s">
-        <v>187</v>
-      </c>
-      <c r="F60" t="s">
-        <v>192</v>
-      </c>
-      <c r="G60" t="s">
-        <v>241</v>
-      </c>
-      <c r="H60">
-        <v>0.8</v>
-      </c>
-      <c r="I60">
-        <v>0.15</v>
+        <v>295</v>
+      </c>
+      <c r="F60">
+        <v>0.7</v>
+      </c>
+      <c r="G60">
+        <v>0.2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>378</v>
+      </c>
+      <c r="I60" t="s">
+        <v>234</v>
       </c>
       <c r="J60" t="s">
-        <v>305</v>
+        <v>464</v>
       </c>
       <c r="K60">
-        <v>42.4</v>
+        <v>13.62</v>
       </c>
       <c r="L60" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M60">
-        <v>-0.1400249765844521</v>
+        <v>-0.01213900063396041</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3796,40 +4330,40 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61">
-        <v>20191106</v>
+        <v>227</v>
+      </c>
+      <c r="D61" t="s">
+        <v>234</v>
       </c>
       <c r="E61" t="s">
-        <v>187</v>
-      </c>
-      <c r="F61" t="s">
-        <v>192</v>
-      </c>
-      <c r="G61" t="s">
-        <v>242</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>0.2</v>
+        <v>296</v>
+      </c>
+      <c r="F61">
+        <v>0.6</v>
+      </c>
+      <c r="G61">
+        <v>0.1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>379</v>
+      </c>
+      <c r="I61" t="s">
+        <v>411</v>
       </c>
       <c r="J61" t="s">
-        <v>306</v>
+        <v>463</v>
       </c>
       <c r="K61">
-        <v>3.05</v>
+        <v>3.72</v>
       </c>
       <c r="L61" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M61">
-        <v>-0.1926554018289353</v>
+        <v>-0.01444403089503457</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3837,40 +4371,40 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62">
-        <v>20150203</v>
+        <v>226</v>
+      </c>
+      <c r="D62" t="s">
+        <v>234</v>
       </c>
       <c r="E62" t="s">
-        <v>186</v>
-      </c>
-      <c r="F62" t="s">
-        <v>186</v>
-      </c>
-      <c r="G62" t="s">
-        <v>243</v>
-      </c>
-      <c r="H62">
-        <v>1.5</v>
-      </c>
-      <c r="I62">
-        <v>0.27</v>
+        <v>297</v>
+      </c>
+      <c r="F62">
+        <v>0.6</v>
+      </c>
+      <c r="G62">
+        <v>0.25</v>
+      </c>
+      <c r="H62" t="s">
+        <v>377</v>
+      </c>
+      <c r="I62" t="s">
+        <v>234</v>
       </c>
       <c r="J62" t="s">
-        <v>307</v>
+        <v>465</v>
       </c>
       <c r="K62">
-        <v>19.83</v>
+        <v>52.92</v>
       </c>
       <c r="L62" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M62">
-        <v>-0.2208051016341171</v>
+        <v>-0.130550284629981</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3878,40 +4412,40 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63">
-        <v>20110926</v>
+        <v>226</v>
+      </c>
+      <c r="D63" t="s">
+        <v>236</v>
       </c>
       <c r="E63" t="s">
-        <v>187</v>
-      </c>
-      <c r="F63" t="s">
-        <v>187</v>
-      </c>
-      <c r="G63" t="s">
-        <v>244</v>
-      </c>
-      <c r="H63">
-        <v>1.6</v>
-      </c>
-      <c r="I63">
-        <v>0.3</v>
+        <v>298</v>
+      </c>
+      <c r="F63">
+        <v>0.7</v>
+      </c>
+      <c r="G63">
+        <v>0.2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>380</v>
+      </c>
+      <c r="I63" t="s">
+        <v>236</v>
       </c>
       <c r="J63" t="s">
-        <v>308</v>
+        <v>462</v>
       </c>
       <c r="K63">
-        <v>2.01</v>
+        <v>153.06</v>
       </c>
       <c r="L63" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M63">
-        <v>-0.06077113153488189</v>
+        <v>-0.06837092883026805</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3919,40 +4453,40 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64">
-        <v>20161014</v>
+        <v>226</v>
+      </c>
+      <c r="D64" t="s">
+        <v>236</v>
       </c>
       <c r="E64" t="s">
-        <v>186</v>
-      </c>
-      <c r="F64" t="s">
-        <v>189</v>
-      </c>
-      <c r="G64" t="s">
-        <v>245</v>
-      </c>
-      <c r="H64">
-        <v>1.5</v>
-      </c>
-      <c r="I64">
-        <v>0.25</v>
+        <v>299</v>
+      </c>
+      <c r="F64">
+        <v>0.4</v>
+      </c>
+      <c r="G64">
+        <v>0.1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>381</v>
+      </c>
+      <c r="I64" t="s">
+        <v>236</v>
       </c>
       <c r="J64" t="s">
-        <v>309</v>
+        <v>466</v>
       </c>
       <c r="K64">
-        <v>41.87</v>
+        <v>326.22</v>
       </c>
       <c r="L64" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M64">
-        <v>-0.1329088738559491</v>
+        <v>-0.04006968570391185</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3960,40 +4494,40 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65">
-        <v>20160204</v>
+        <v>226</v>
+      </c>
+      <c r="D65" t="s">
+        <v>236</v>
       </c>
       <c r="E65" t="s">
-        <v>188</v>
-      </c>
-      <c r="F65" t="s">
-        <v>188</v>
-      </c>
-      <c r="G65" t="s">
-        <v>246</v>
-      </c>
-      <c r="H65">
-        <v>0.7</v>
-      </c>
-      <c r="I65">
+        <v>300</v>
+      </c>
+      <c r="F65">
+        <v>0.3</v>
+      </c>
+      <c r="G65">
         <v>0.1</v>
       </c>
+      <c r="H65" t="s">
+        <v>382</v>
+      </c>
+      <c r="I65" t="s">
+        <v>236</v>
+      </c>
       <c r="J65" t="s">
-        <v>310</v>
+        <v>467</v>
       </c>
       <c r="K65">
-        <v>47.74</v>
+        <v>108.14</v>
       </c>
       <c r="L65" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M65">
-        <v>0.001427551748750901</v>
+        <v>0.01565789153736818</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4001,40 +4535,40 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D66">
-        <v>20160126</v>
+        <v>228</v>
+      </c>
+      <c r="D66" t="s">
+        <v>236</v>
       </c>
       <c r="E66" t="s">
-        <v>186</v>
-      </c>
-      <c r="F66" t="s">
-        <v>189</v>
-      </c>
-      <c r="G66" t="s">
-        <v>247</v>
-      </c>
-      <c r="H66">
-        <v>1.5</v>
-      </c>
-      <c r="I66">
-        <v>0.25</v>
+        <v>301</v>
+      </c>
+      <c r="F66">
+        <v>0.3</v>
+      </c>
+      <c r="G66">
+        <v>0.1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>383</v>
+      </c>
+      <c r="I66" t="s">
+        <v>236</v>
       </c>
       <c r="J66" t="s">
-        <v>263</v>
+        <v>468</v>
       </c>
       <c r="K66">
-        <v>16.24</v>
+        <v>176.35</v>
       </c>
       <c r="L66" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M66">
-        <v>-0.1555191423784932</v>
+        <v>0.01460591585522692</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4042,40 +4576,40 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67">
-        <v>20150806</v>
+        <v>210</v>
+      </c>
+      <c r="D67" t="s">
+        <v>236</v>
       </c>
       <c r="E67" t="s">
-        <v>186</v>
-      </c>
-      <c r="F67" t="s">
-        <v>189</v>
-      </c>
-      <c r="G67" t="s">
-        <v>248</v>
-      </c>
-      <c r="H67">
-        <v>1.5</v>
-      </c>
-      <c r="I67">
-        <v>0.25</v>
+        <v>302</v>
+      </c>
+      <c r="F67">
+        <v>0.7</v>
+      </c>
+      <c r="G67">
+        <v>0.2</v>
+      </c>
+      <c r="H67" t="s">
+        <v>384</v>
+      </c>
+      <c r="I67" t="s">
+        <v>236</v>
       </c>
       <c r="J67" t="s">
-        <v>263</v>
+        <v>469</v>
       </c>
       <c r="K67">
-        <v>30.37</v>
+        <v>17.07</v>
       </c>
       <c r="L67" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M67">
-        <v>-0.1425576535331531</v>
+        <v>0.01397306523630915</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4083,40 +4617,40 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
-      </c>
-      <c r="D68">
-        <v>20150602</v>
+        <v>210</v>
+      </c>
+      <c r="D68" t="s">
+        <v>236</v>
       </c>
       <c r="E68" t="s">
-        <v>186</v>
-      </c>
-      <c r="F68" t="s">
-        <v>189</v>
-      </c>
-      <c r="G68" t="s">
-        <v>249</v>
-      </c>
-      <c r="H68">
-        <v>0.7</v>
-      </c>
-      <c r="I68">
+        <v>303</v>
+      </c>
+      <c r="F68">
+        <v>0.5</v>
+      </c>
+      <c r="G68">
         <v>0.15</v>
       </c>
+      <c r="H68" t="s">
+        <v>385</v>
+      </c>
+      <c r="I68" t="s">
+        <v>236</v>
+      </c>
       <c r="J68" t="s">
-        <v>311</v>
+        <v>470</v>
       </c>
       <c r="K68">
-        <v>1.42</v>
+        <v>12.85</v>
       </c>
       <c r="L68" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M68">
-        <v>-0.1425641025641026</v>
+        <v>0.01100756119342403</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4124,40 +4658,40 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
-      </c>
-      <c r="D69">
-        <v>20140603</v>
+        <v>215</v>
+      </c>
+      <c r="D69" t="s">
+        <v>236</v>
       </c>
       <c r="E69" t="s">
-        <v>186</v>
-      </c>
-      <c r="F69" t="s">
-        <v>189</v>
-      </c>
-      <c r="G69" t="s">
-        <v>193</v>
-      </c>
-      <c r="H69">
-        <v>1.5</v>
-      </c>
-      <c r="I69">
-        <v>0.25</v>
+        <v>304</v>
+      </c>
+      <c r="F69">
+        <v>0.7</v>
+      </c>
+      <c r="G69">
+        <v>0.2</v>
+      </c>
+      <c r="H69" t="s">
+        <v>386</v>
+      </c>
+      <c r="I69" t="s">
+        <v>236</v>
       </c>
       <c r="J69" t="s">
-        <v>312</v>
+        <v>471</v>
       </c>
       <c r="K69">
-        <v>18.55</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="L69" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M69">
-        <v>-0.2099106754706726</v>
+        <v>0.0128599384959463</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4165,40 +4699,40 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
-      </c>
-      <c r="D70">
-        <v>20100326</v>
+        <v>206</v>
+      </c>
+      <c r="D70" t="s">
+        <v>236</v>
       </c>
       <c r="E70" t="s">
-        <v>186</v>
-      </c>
-      <c r="F70" t="s">
-        <v>189</v>
-      </c>
-      <c r="G70" t="s">
-        <v>250</v>
-      </c>
-      <c r="H70">
-        <v>1.5</v>
-      </c>
-      <c r="I70">
-        <v>0.25</v>
+        <v>305</v>
+      </c>
+      <c r="F70">
+        <v>0.7</v>
+      </c>
+      <c r="G70">
+        <v>0.2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>387</v>
+      </c>
+      <c r="I70" t="s">
+        <v>236</v>
       </c>
       <c r="J70" t="s">
-        <v>313</v>
+        <v>472</v>
       </c>
       <c r="K70">
-        <v>1.88</v>
+        <v>3.09</v>
       </c>
       <c r="L70" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M70">
-        <v>-0.3245370373291181</v>
+        <v>0.01599519938996287</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4206,40 +4740,40 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
-      </c>
-      <c r="D71">
-        <v>20200316</v>
+        <v>214</v>
+      </c>
+      <c r="D71" t="s">
+        <v>236</v>
       </c>
       <c r="E71" t="s">
-        <v>187</v>
-      </c>
-      <c r="F71" t="s">
-        <v>191</v>
-      </c>
-      <c r="G71" t="s">
-        <v>251</v>
-      </c>
-      <c r="H71">
-        <v>0.5</v>
-      </c>
-      <c r="I71">
-        <v>0.1</v>
+        <v>306</v>
+      </c>
+      <c r="F71">
+        <v>0.7</v>
+      </c>
+      <c r="G71">
+        <v>0.2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>388</v>
+      </c>
+      <c r="I71" t="s">
+        <v>412</v>
       </c>
       <c r="J71" t="s">
-        <v>314</v>
+        <v>473</v>
       </c>
       <c r="K71">
-        <v>4.98</v>
+        <v>99.87</v>
       </c>
       <c r="L71" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M71">
-        <v>-0.2260075566750629</v>
+        <v>0.02265353418308222</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4247,40 +4781,40 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
-      </c>
-      <c r="D72">
-        <v>20211110</v>
+        <v>214</v>
+      </c>
+      <c r="D72" t="s">
+        <v>236</v>
       </c>
       <c r="E72" t="s">
-        <v>187</v>
-      </c>
-      <c r="F72" t="s">
-        <v>191</v>
-      </c>
-      <c r="G72" t="s">
-        <v>252</v>
-      </c>
-      <c r="H72">
-        <v>0.5</v>
-      </c>
-      <c r="I72">
-        <v>0.1</v>
+        <v>307</v>
+      </c>
+      <c r="F72">
+        <v>0.7</v>
+      </c>
+      <c r="G72">
+        <v>0.2</v>
+      </c>
+      <c r="H72" t="s">
+        <v>387</v>
+      </c>
+      <c r="I72" t="s">
+        <v>236</v>
       </c>
       <c r="J72" t="s">
-        <v>315</v>
+        <v>473</v>
       </c>
       <c r="K72">
-        <v>1.04</v>
+        <v>183.12</v>
       </c>
       <c r="L72" t="s">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="M72">
-        <v>-0.3787082051790853</v>
+        <v>0.02587800167929731</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4288,39 +4822,982 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" t="s">
+        <v>308</v>
+      </c>
+      <c r="F73">
+        <v>0.6</v>
+      </c>
+      <c r="G73">
+        <v>0.2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>389</v>
+      </c>
+      <c r="I73" t="s">
+        <v>236</v>
+      </c>
+      <c r="J73" t="s">
+        <v>474</v>
+      </c>
+      <c r="K73">
+        <v>132.63</v>
+      </c>
+      <c r="L73" t="s">
+        <v>495</v>
+      </c>
+      <c r="M73">
+        <v>0.01983002832861192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" t="s">
+        <v>215</v>
+      </c>
+      <c r="D74" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" t="s">
+        <v>309</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0.22</v>
+      </c>
+      <c r="H74" t="s">
+        <v>390</v>
+      </c>
+      <c r="I74" t="s">
+        <v>413</v>
+      </c>
+      <c r="J74" t="s">
+        <v>475</v>
+      </c>
+      <c r="K74">
+        <v>37.38</v>
+      </c>
+      <c r="L74" t="s">
+        <v>495</v>
+      </c>
+      <c r="M74">
+        <v>-0.1086587437110686</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" t="s">
+        <v>235</v>
+      </c>
+      <c r="E75" t="s">
+        <v>310</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0.22</v>
+      </c>
+      <c r="H75" t="s">
+        <v>391</v>
+      </c>
+      <c r="I75" t="s">
+        <v>413</v>
+      </c>
+      <c r="J75" t="s">
+        <v>476</v>
+      </c>
+      <c r="K75">
+        <v>11.95</v>
+      </c>
+      <c r="L75" t="s">
+        <v>495</v>
+      </c>
+      <c r="M75">
+        <v>-0.2464135008437278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" t="s">
+        <v>210</v>
+      </c>
+      <c r="D76" t="s">
+        <v>235</v>
+      </c>
+      <c r="E76" t="s">
+        <v>311</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0.22</v>
+      </c>
+      <c r="H76" t="s">
+        <v>392</v>
+      </c>
+      <c r="I76" t="s">
+        <v>413</v>
+      </c>
+      <c r="J76" t="s">
+        <v>477</v>
+      </c>
+      <c r="K76">
+        <v>88.17</v>
+      </c>
+      <c r="L76" t="s">
+        <v>495</v>
+      </c>
+      <c r="M76">
+        <v>-0.2750170199572944</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" t="s">
+        <v>312</v>
+      </c>
+      <c r="F77">
+        <v>0.5</v>
+      </c>
+      <c r="G77">
+        <v>0.1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>393</v>
+      </c>
+      <c r="I77" t="s">
+        <v>413</v>
+      </c>
+      <c r="J77" t="s">
+        <v>478</v>
+      </c>
+      <c r="K77">
+        <v>11.54</v>
+      </c>
+      <c r="L77" t="s">
+        <v>495</v>
+      </c>
+      <c r="M77">
+        <v>-0.04029824249955628</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" t="s">
+        <v>235</v>
+      </c>
+      <c r="E78" t="s">
+        <v>313</v>
+      </c>
+      <c r="F78">
+        <v>0.5</v>
+      </c>
+      <c r="G78">
+        <v>0.15</v>
+      </c>
+      <c r="H78" t="s">
+        <v>394</v>
+      </c>
+      <c r="I78" t="s">
+        <v>413</v>
+      </c>
+      <c r="J78" t="s">
+        <v>479</v>
+      </c>
+      <c r="K78">
+        <v>7.74</v>
+      </c>
+      <c r="L78" t="s">
+        <v>495</v>
+      </c>
+      <c r="M78">
+        <v>-0.03720333547145606</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" t="s">
         <v>185</v>
       </c>
-      <c r="D73">
-        <v>20180426</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" t="s">
+        <v>235</v>
+      </c>
+      <c r="E79" t="s">
+        <v>314</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0.2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>394</v>
+      </c>
+      <c r="I79" t="s">
+        <v>413</v>
+      </c>
+      <c r="J79" t="s">
+        <v>480</v>
+      </c>
+      <c r="K79">
+        <v>13.72</v>
+      </c>
+      <c r="L79" t="s">
+        <v>495</v>
+      </c>
+      <c r="M79">
+        <v>-0.04070416267445133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" t="s">
+        <v>226</v>
+      </c>
+      <c r="D80" t="s">
+        <v>235</v>
+      </c>
+      <c r="E80" t="s">
+        <v>315</v>
+      </c>
+      <c r="F80">
+        <v>1.2</v>
+      </c>
+      <c r="G80">
+        <v>0.2</v>
+      </c>
+      <c r="H80" t="s">
+        <v>395</v>
+      </c>
+      <c r="I80" t="s">
+        <v>414</v>
+      </c>
+      <c r="J80" t="s">
+        <v>481</v>
+      </c>
+      <c r="K80">
+        <v>180.33</v>
+      </c>
+      <c r="L80" t="s">
+        <v>495</v>
+      </c>
+      <c r="M80">
+        <v>-0.1835861870176764</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
         <v>187</v>
       </c>
-      <c r="F73" t="s">
+      <c r="C81" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" t="s">
+        <v>235</v>
+      </c>
+      <c r="E81" t="s">
+        <v>316</v>
+      </c>
+      <c r="F81">
+        <v>0.8</v>
+      </c>
+      <c r="G81">
+        <v>0.15</v>
+      </c>
+      <c r="H81" t="s">
+        <v>396</v>
+      </c>
+      <c r="I81" t="s">
+        <v>414</v>
+      </c>
+      <c r="J81" t="s">
+        <v>482</v>
+      </c>
+      <c r="K81">
+        <v>42.4</v>
+      </c>
+      <c r="L81" t="s">
+        <v>495</v>
+      </c>
+      <c r="M81">
+        <v>-0.1400249765844521</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" t="s">
+        <v>235</v>
+      </c>
+      <c r="E82" t="s">
+        <v>317</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0.2</v>
+      </c>
+      <c r="H82" t="s">
+        <v>397</v>
+      </c>
+      <c r="I82" t="s">
+        <v>414</v>
+      </c>
+      <c r="J82" t="s">
+        <v>483</v>
+      </c>
+      <c r="K82">
+        <v>3.05</v>
+      </c>
+      <c r="L82" t="s">
+        <v>495</v>
+      </c>
+      <c r="M82">
+        <v>-0.1926554018289353</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" t="s">
+        <v>234</v>
+      </c>
+      <c r="E83" t="s">
+        <v>318</v>
+      </c>
+      <c r="F83">
+        <v>1.6</v>
+      </c>
+      <c r="G83">
+        <v>0.3</v>
+      </c>
+      <c r="H83" t="s">
+        <v>398</v>
+      </c>
+      <c r="I83" t="s">
+        <v>234</v>
+      </c>
+      <c r="J83" t="s">
+        <v>484</v>
+      </c>
+      <c r="K83">
+        <v>35.11</v>
+      </c>
+      <c r="L83" t="s">
+        <v>495</v>
+      </c>
+      <c r="M83">
+        <v>-0.104945717615795</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" t="s">
+        <v>218</v>
+      </c>
+      <c r="D84" t="s">
+        <v>234</v>
+      </c>
+      <c r="E84" t="s">
+        <v>319</v>
+      </c>
+      <c r="F84">
+        <v>1.8</v>
+      </c>
+      <c r="G84">
+        <v>0.35</v>
+      </c>
+      <c r="H84" t="s">
+        <v>399</v>
+      </c>
+      <c r="I84" t="s">
+        <v>234</v>
+      </c>
+      <c r="J84" t="s">
+        <v>485</v>
+      </c>
+      <c r="K84">
+        <v>9.42</v>
+      </c>
+      <c r="L84" t="s">
+        <v>495</v>
+      </c>
+      <c r="M84">
+        <v>-0.06560636137697035</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" t="s">
         <v>191</v>
       </c>
-      <c r="G73" t="s">
-        <v>253</v>
-      </c>
-      <c r="H73">
+      <c r="C85" t="s">
+        <v>213</v>
+      </c>
+      <c r="D85" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" t="s">
+        <v>320</v>
+      </c>
+      <c r="F85">
+        <v>1.5</v>
+      </c>
+      <c r="G85">
+        <v>0.27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>400</v>
+      </c>
+      <c r="I85" t="s">
+        <v>234</v>
+      </c>
+      <c r="J85" t="s">
+        <v>486</v>
+      </c>
+      <c r="K85">
+        <v>19.83</v>
+      </c>
+      <c r="L85" t="s">
+        <v>495</v>
+      </c>
+      <c r="M85">
+        <v>-0.2208051016341171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" t="s">
+        <v>235</v>
+      </c>
+      <c r="E86" t="s">
+        <v>321</v>
+      </c>
+      <c r="F86">
+        <v>1.6</v>
+      </c>
+      <c r="G86">
+        <v>0.3</v>
+      </c>
+      <c r="H86" t="s">
+        <v>401</v>
+      </c>
+      <c r="I86" t="s">
+        <v>235</v>
+      </c>
+      <c r="J86" t="s">
+        <v>487</v>
+      </c>
+      <c r="K86">
+        <v>2.01</v>
+      </c>
+      <c r="L86" t="s">
+        <v>495</v>
+      </c>
+      <c r="M86">
+        <v>-0.06077113153488189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" t="s">
+        <v>212</v>
+      </c>
+      <c r="D87" t="s">
+        <v>234</v>
+      </c>
+      <c r="E87" t="s">
+        <v>322</v>
+      </c>
+      <c r="F87">
+        <v>1.5</v>
+      </c>
+      <c r="G87">
+        <v>0.25</v>
+      </c>
+      <c r="H87" t="s">
+        <v>402</v>
+      </c>
+      <c r="I87" t="s">
+        <v>411</v>
+      </c>
+      <c r="J87" t="s">
+        <v>488</v>
+      </c>
+      <c r="K87">
+        <v>41.87</v>
+      </c>
+      <c r="L87" t="s">
+        <v>495</v>
+      </c>
+      <c r="M87">
+        <v>-0.1329088738559491</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88" t="s">
+        <v>236</v>
+      </c>
+      <c r="E88" t="s">
+        <v>323</v>
+      </c>
+      <c r="F88">
+        <v>0.7</v>
+      </c>
+      <c r="G88">
+        <v>0.1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>403</v>
+      </c>
+      <c r="I88" t="s">
+        <v>236</v>
+      </c>
+      <c r="J88" t="s">
+        <v>441</v>
+      </c>
+      <c r="K88">
+        <v>47.74</v>
+      </c>
+      <c r="L88" t="s">
+        <v>495</v>
+      </c>
+      <c r="M88">
+        <v>0.001427551748750901</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" t="s">
+        <v>234</v>
+      </c>
+      <c r="E89" t="s">
+        <v>324</v>
+      </c>
+      <c r="F89">
+        <v>1.5</v>
+      </c>
+      <c r="G89">
+        <v>0.25</v>
+      </c>
+      <c r="H89" t="s">
+        <v>404</v>
+      </c>
+      <c r="I89" t="s">
+        <v>411</v>
+      </c>
+      <c r="J89" t="s">
+        <v>428</v>
+      </c>
+      <c r="K89">
+        <v>16.24</v>
+      </c>
+      <c r="L89" t="s">
+        <v>495</v>
+      </c>
+      <c r="M89">
+        <v>-0.1555191423784932</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" t="s">
+        <v>234</v>
+      </c>
+      <c r="E90" t="s">
+        <v>285</v>
+      </c>
+      <c r="F90">
+        <v>1.5</v>
+      </c>
+      <c r="G90">
+        <v>0.25</v>
+      </c>
+      <c r="H90" t="s">
+        <v>405</v>
+      </c>
+      <c r="I90" t="s">
+        <v>411</v>
+      </c>
+      <c r="J90" t="s">
+        <v>428</v>
+      </c>
+      <c r="K90">
+        <v>30.37</v>
+      </c>
+      <c r="L90" t="s">
+        <v>495</v>
+      </c>
+      <c r="M90">
+        <v>-0.1425576535331531</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>231</v>
+      </c>
+      <c r="D91" t="s">
+        <v>234</v>
+      </c>
+      <c r="E91" t="s">
+        <v>325</v>
+      </c>
+      <c r="F91">
+        <v>0.7</v>
+      </c>
+      <c r="G91">
         <v>0.15</v>
       </c>
-      <c r="I73">
+      <c r="H91" t="s">
+        <v>406</v>
+      </c>
+      <c r="I91" t="s">
+        <v>411</v>
+      </c>
+      <c r="J91" t="s">
+        <v>489</v>
+      </c>
+      <c r="K91">
+        <v>1.42</v>
+      </c>
+      <c r="L91" t="s">
+        <v>495</v>
+      </c>
+      <c r="M91">
+        <v>-0.1425641025641026</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" t="s">
+        <v>234</v>
+      </c>
+      <c r="E92" t="s">
+        <v>326</v>
+      </c>
+      <c r="F92">
+        <v>1.5</v>
+      </c>
+      <c r="G92">
+        <v>0.25</v>
+      </c>
+      <c r="H92" t="s">
+        <v>332</v>
+      </c>
+      <c r="I92" t="s">
+        <v>411</v>
+      </c>
+      <c r="J92" t="s">
+        <v>490</v>
+      </c>
+      <c r="K92">
+        <v>18.55</v>
+      </c>
+      <c r="L92" t="s">
+        <v>495</v>
+      </c>
+      <c r="M92">
+        <v>-0.2099106754706726</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" t="s">
+        <v>232</v>
+      </c>
+      <c r="D93" t="s">
+        <v>234</v>
+      </c>
+      <c r="E93" t="s">
+        <v>327</v>
+      </c>
+      <c r="F93">
+        <v>1.5</v>
+      </c>
+      <c r="G93">
+        <v>0.25</v>
+      </c>
+      <c r="H93" t="s">
+        <v>407</v>
+      </c>
+      <c r="I93" t="s">
+        <v>411</v>
+      </c>
+      <c r="J93" t="s">
+        <v>491</v>
+      </c>
+      <c r="K93">
+        <v>1.88</v>
+      </c>
+      <c r="L93" t="s">
+        <v>495</v>
+      </c>
+      <c r="M93">
+        <v>-0.3245370373291181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" t="s">
+        <v>210</v>
+      </c>
+      <c r="D94" t="s">
+        <v>235</v>
+      </c>
+      <c r="E94" t="s">
+        <v>328</v>
+      </c>
+      <c r="F94">
+        <v>0.5</v>
+      </c>
+      <c r="G94">
+        <v>0.1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>408</v>
+      </c>
+      <c r="I94" t="s">
+        <v>413</v>
+      </c>
+      <c r="J94" t="s">
+        <v>492</v>
+      </c>
+      <c r="K94">
+        <v>4.98</v>
+      </c>
+      <c r="L94" t="s">
+        <v>495</v>
+      </c>
+      <c r="M94">
+        <v>-0.2260075566750629</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" t="s">
+        <v>211</v>
+      </c>
+      <c r="D95" t="s">
+        <v>235</v>
+      </c>
+      <c r="E95" t="s">
+        <v>329</v>
+      </c>
+      <c r="F95">
+        <v>0.5</v>
+      </c>
+      <c r="G95">
+        <v>0.1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>409</v>
+      </c>
+      <c r="I95" t="s">
+        <v>413</v>
+      </c>
+      <c r="J95" t="s">
+        <v>493</v>
+      </c>
+      <c r="K95">
+        <v>1.04</v>
+      </c>
+      <c r="L95" t="s">
+        <v>495</v>
+      </c>
+      <c r="M95">
+        <v>-0.3787082051790853</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" t="s">
+        <v>233</v>
+      </c>
+      <c r="D96" t="s">
+        <v>235</v>
+      </c>
+      <c r="E96" t="s">
+        <v>330</v>
+      </c>
+      <c r="F96">
+        <v>0.15</v>
+      </c>
+      <c r="G96">
         <v>0.05</v>
       </c>
-      <c r="J73" t="s">
-        <v>316</v>
-      </c>
-      <c r="K73">
+      <c r="H96" t="s">
+        <v>410</v>
+      </c>
+      <c r="I96" t="s">
+        <v>413</v>
+      </c>
+      <c r="J96" t="s">
+        <v>494</v>
+      </c>
+      <c r="K96">
         <v>5.78</v>
       </c>
-      <c r="L73" t="s">
-        <v>317</v>
-      </c>
-      <c r="M73">
+      <c r="L96" t="s">
+        <v>495</v>
+      </c>
+      <c r="M96">
         <v>-0.1786848304179088</v>
       </c>
     </row>
